--- a/QuantLibXL/Data2/XLS/SEK/SEK_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_MxContributor.xlsx
@@ -1351,109 +1351,109 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-0.37301811699999998</v>
+        <v>-0.379994263</v>
         <stp/>
         <stp xml:space="preserve">	SEKONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
       <tp>
-        <v>-0.37299234800000003</v>
+        <v>-0.38011629400000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
       <tp>
-        <v>0.69500000000000006</v>
+        <v>0.72</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC31" s="7"/>
       </tp>
       <tp>
-        <v>-0.38300000000000001</v>
+        <v>-0.39</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
       <tp>
-        <v>0.91249999999999998</v>
+        <v>0.94499999999999995</v>
         <stp/>
         <stp xml:space="preserve">	SEKON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC32" s="7"/>
       </tp>
       <tp>
-        <v>0.17499999999999999</v>
+        <v>0.1825</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC29" s="7"/>
       </tp>
       <tp>
-        <v>-0.375693842</v>
+        <v>-0.38970079299999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC15" s="7"/>
       </tp>
       <tp>
-        <v>0.44500000000000001</v>
+        <v>0.46749999999999997</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC30" s="7"/>
       </tp>
       <tp>
-        <v>-0.37682051500000002</v>
+        <v>-0.38868843399999997</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC16" s="7"/>
       </tp>
       <tp>
-        <v>-0.24500000000000002</v>
+        <v>-0.26250000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC27" s="7"/>
       </tp>
       <tp>
-        <v>-0.37</v>
+        <v>-0.40300000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC13" s="7"/>
       </tp>
       <tp>
-        <v>-5.5000000000000007E-2</v>
+        <v>-6.5000000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC28" s="7"/>
       </tp>
       <tp>
-        <v>-0.375</v>
+        <v>-0.39500000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
       <tp>
-        <v>-0.38</v>
+        <v>-0.375</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC26" s="7"/>
       </tp>
       <tp>
-        <v>-0.371</v>
+        <v>-0.39</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC12" s="7"/>
       </tp>
       <tp>
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC33" s="7"/>
       </tp>
       <tp>
-        <v>1.2650000000000001</v>
+        <v>1.3025</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC34" s="7"/>
       </tp>
       <tp>
-        <v>-0.40499999999999997</v>
+        <v>-0.39200000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC18" s="7"/>
@@ -1489,127 +1489,129 @@
         <tr r="AB37" s="7"/>
       </tp>
       <tp>
-        <v>1.635</v>
+        <v>1.655</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB36" s="7"/>
       </tp>
       <tp>
-        <v>1.405</v>
+        <v>1.4375</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB35" s="7"/>
       </tp>
       <tp>
-        <v>-0.37301811699999998</v>
+        <v>-0.379994263</v>
         <stp/>
         <stp xml:space="preserve">	SEKONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB6" s="7"/>
       </tp>
       <tp>
-        <v>-0.37299234800000003</v>
+        <v>-0.38011629400000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB7" s="7"/>
       </tp>
       <tp>
-        <v>0.69500000000000006</v>
+        <v>0.72</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB31" s="7"/>
       </tp>
       <tp>
-        <v>-0.38300000000000001</v>
+        <v>-0.39</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB17" s="7"/>
       </tp>
       <tp>
-        <v>0.91249999999999998</v>
+        <v>0.94499999999999995</v>
         <stp/>
         <stp xml:space="preserve">	SEKON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB32" s="7"/>
       </tp>
       <tp>
-        <v>0.17499999999999999</v>
+        <v>0.1825</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB29" s="7"/>
       </tp>
       <tp>
-        <v>-0.375693842</v>
+        <v>-0.38970079299999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB15" s="7"/>
       </tp>
       <tp>
-        <v>0.44500000000000001</v>
+        <v>0.46749999999999997</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB30" s="7"/>
       </tp>
       <tp>
-        <v>-0.37682051500000002</v>
+        <v>-0.38868843399999997</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB16" s="7"/>
       </tp>
       <tp>
-        <v>-0.24500000000000002</v>
+        <v>-0.26250000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB27" s="7"/>
       </tp>
       <tp>
-        <v>-0.37</v>
+        <v>-0.40300000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB13" s="7"/>
       </tp>
       <tp>
-        <v>-5.5000000000000007E-2</v>
+        <v>-6.5000000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB28" s="7"/>
       </tp>
       <tp>
-        <v>-0.375</v>
+        <v>-0.39500000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB14" s="7"/>
       </tp>
       <tp>
-        <v>-0.38</v>
+        <v>-0.375</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB26" s="7"/>
       </tp>
       <tp>
-        <v>-0.371</v>
+        <v>-0.39</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB12" s="7"/>
       </tp>
       <tp>
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB33" s="7"/>
       </tp>
       <tp>
-        <v>1.2650000000000001</v>
+        <v>1.3025</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB34" s="7"/>
       </tp>
       <tp>
-        <v>-0.40499999999999997</v>
+        <v>-0.39200000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB18" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
         <v>1.9</v>
         <stp/>
@@ -1618,14 +1620,14 @@
         <tr r="AC37" s="7"/>
       </tp>
       <tp>
-        <v>1.635</v>
+        <v>1.655</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC36" s="7"/>
       </tp>
       <tp>
-        <v>1.405</v>
+        <v>1.4375</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1655,151 +1657,151 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-0.319632154</v>
+        <v>-0.22602914599999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH9" s="7"/>
       </tp>
       <tp>
-        <v>-0.31983516400000001</v>
+        <v>-0.22516879699999998</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH8" s="7"/>
       </tp>
       <tp>
-        <v>-0.29399999999999998</v>
+        <v>-0.22700000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH17" s="7"/>
       </tp>
       <tp>
-        <v>-0.30019999999999997</v>
+        <v>-0.22970000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH15" s="7"/>
       </tp>
       <tp>
-        <v>-0.2949</v>
+        <v>-0.2273</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH16" s="7"/>
       </tp>
       <tp>
-        <v>-0.31843410900000002</v>
+        <v>-0.22782121499999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH10" s="7"/>
       </tp>
       <tp>
-        <v>-0.30740000000000001</v>
+        <v>-0.24580000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH13" s="7"/>
       </tp>
       <tp>
-        <v>-0.31700864200000001</v>
+        <v>-0.22926353000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH11" s="7"/>
       </tp>
       <tp>
-        <v>-0.30619999999999997</v>
+        <v>-0.2364</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH14" s="7"/>
       </tp>
       <tp>
-        <v>-0.31509999999999999</v>
+        <v>-0.23420000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH12" s="7"/>
       </tp>
       <tp>
-        <v>2.3427451000000001</v>
+        <v>2.3351422820000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE39" s="7"/>
       </tp>
       <tp>
-        <v>2.1959009279999999</v>
+        <v>2.1907980829999998</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE38" s="7"/>
       </tp>
       <tp>
-        <v>2.375094577</v>
+        <v>2.3674917689999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE40" s="7"/>
       </tp>
       <tp>
-        <v>1.91559148</v>
+        <v>1.9104890299999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE37" s="7"/>
       </tp>
       <tp>
-        <v>1.4278403420000001</v>
+        <v>1.452824718</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE35" s="7"/>
       </tp>
       <tp>
-        <v>1.6557591119999999</v>
+        <v>1.6681475400000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE36" s="7"/>
       </tp>
       <tp>
-        <v>1.2275</v>
+        <v>1.2625</v>
         <stp/>
         <stp>_x0008_SEK3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG33" s="7"/>
       </tp>
       <tp>
-        <v>1.3900000000000001</v>
+        <v>1.4224999999999999</v>
         <stp/>
         <stp>_x0008_SEK3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG34" s="7"/>
       </tp>
       <tp>
-        <v>0.30499999999999999</v>
+        <v>0.31</v>
         <stp/>
         <stp>_x0008_SEK3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG29" s="7"/>
       </tp>
       <tp>
-        <v>0.57750000000000001</v>
+        <v>0.59499999999999997</v>
         <stp/>
         <stp>_x0008_SEK3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG30" s="7"/>
       </tp>
       <tp>
-        <v>0.82750000000000001</v>
+        <v>0.84749999999999992</v>
         <stp/>
         <stp>_x0008_SEK3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG31" s="7"/>
       </tp>
       <tp>
-        <v>1.0425</v>
+        <v>1.07</v>
         <stp/>
         <stp>_x0008_SEK3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG32" s="7"/>
       </tp>
       <tp>
-        <v>-0.35938545399999999</v>
+        <v>-0.32523211000000002</v>
         <stp/>
         <stp>_x0008_SEK3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG26" s="7"/>
       </tp>
       <tp>
-        <v>-0.19500000000000001</v>
+        <v>-0.20750000000000002</v>
         <stp/>
         <stp>_x0008_SEK3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG27" s="7"/>
       </tp>
       <tp>
-        <v>3.4999999999999996E-2</v>
+        <v>2.7500000000000004E-2</v>
         <stp/>
         <stp>_x0008_SEK3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG28" s="7"/>
@@ -1807,91 +1809,91 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4325000000000001</v>
+        <v>2.4249999999999998</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG39" s="7"/>
       </tp>
       <tp>
-        <v>2.29</v>
+        <v>2.2850000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG38" s="7"/>
       </tp>
       <tp>
-        <v>2.4624999999999999</v>
+        <v>2.4550000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG40" s="7"/>
       </tp>
       <tp>
-        <v>2.0150000000000001</v>
+        <v>2.0099999999999998</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG37" s="7"/>
       </tp>
       <tp>
-        <v>1.53</v>
+        <v>1.5549999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG35" s="7"/>
       </tp>
       <tp>
-        <v>1.7575000000000001</v>
+        <v>1.77</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG36" s="7"/>
       </tp>
       <tp>
-        <v>1.1249826540000001</v>
+        <v>1.1600644390000001</v>
         <stp/>
         <stp>_x0008_SEK1M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE33" s="7"/>
       </tp>
       <tp>
-        <v>1.287589254</v>
+        <v>1.320173163</v>
         <stp/>
         <stp>_x0008_SEK1M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE34" s="7"/>
       </tp>
       <tp>
-        <v>0.20291912600000001</v>
+        <v>0.20791242799999998</v>
         <stp/>
         <stp>_x0008_SEK1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE29" s="7"/>
       </tp>
       <tp>
-        <v>0.47494132699999997</v>
+        <v>0.49242859899999997</v>
         <stp/>
         <stp>_x0008_SEK1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE30" s="7"/>
       </tp>
       <tp>
-        <v>0.72484251499999997</v>
+        <v>0.74482905099999996</v>
         <stp/>
         <stp>_x0008_SEK1M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE31" s="7"/>
       </tp>
       <tp>
-        <v>0.93985594399999994</v>
+        <v>0.96744045800000011</v>
         <stp/>
         <stp>_x0008_SEK1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE32" s="7"/>
       </tp>
       <tp>
-        <v>-0.446087917</v>
+        <v>-0.436091065</v>
         <stp/>
         <stp>_x0008_SEK1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE26" s="7"/>
       </tp>
       <tp>
-        <v>-0.28861830700000002</v>
+        <v>-0.30111220699999997</v>
         <stp/>
         <stp>_x0008_SEK1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE27" s="7"/>
       </tp>
       <tp>
-        <v>-6.4450658999999993E-2</v>
+        <v>-7.1948712999999997E-2</v>
         <stp/>
         <stp>_x0008_SEK1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE28" s="7"/>
@@ -1899,97 +1901,97 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-0.55280895299999999</v>
+        <v>-0.36213601600000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF9" s="7"/>
       </tp>
       <tp>
-        <v>-0.55427860100000004</v>
+        <v>-0.36118646700000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF8" s="7"/>
       </tp>
       <tp>
-        <v>-0.54405234899999999</v>
+        <v>-0.36412160499999996</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF10" s="7"/>
       </tp>
       <tp>
-        <v>-0.46580000000000005</v>
+        <v>-0.38490000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF13" s="7"/>
       </tp>
       <tp>
-        <v>-0.53360393100000003</v>
+        <v>-0.365721303</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF11" s="7"/>
       </tp>
       <tp>
-        <v>-0.43499999999999994</v>
+        <v>-0.377</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF14" s="7"/>
       </tp>
       <tp>
-        <v>-0.51959999999999995</v>
+        <v>-0.37119999999999997</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF12" s="7"/>
       </tp>
       <tp>
-        <v>1.3271693600000001</v>
+        <v>1.3641222850000001</v>
         <stp/>
         <stp>_x0008_SEK6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI33" s="7"/>
       </tp>
       <tp>
-        <v>1.489342591</v>
+        <v>1.523591302</v>
         <stp/>
         <stp>_x0008_SEK6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI34" s="7"/>
       </tp>
       <tp>
-        <v>0.40635306399999999</v>
+        <v>0.41511673399999999</v>
         <stp/>
         <stp>_x0008_SEK6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI29" s="7"/>
       </tp>
       <tp>
-        <v>0.67849258500000009</v>
+        <v>0.69895284999999996</v>
         <stp/>
         <stp>_x0008_SEK6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI30" s="7"/>
       </tp>
       <tp>
-        <v>0.92805969899999996</v>
+        <v>0.95061551099999997</v>
         <stp/>
         <stp>_x0008_SEK6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI31" s="7"/>
       </tp>
       <tp>
-        <v>1.142619007</v>
+        <v>1.1722723589999999</v>
         <stp/>
         <stp>_x0008_SEK6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI32" s="7"/>
       </tp>
       <tp>
-        <v>-0.256343608</v>
+        <v>-0.20705973900000002</v>
         <stp/>
         <stp>_x0008_SEK6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI26" s="7"/>
       </tp>
       <tp>
-        <v>-9.2841527000000007E-2</v>
+        <v>-9.7738440999999995E-2</v>
         <stp/>
         <stp>_x0008_SEK6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI27" s="7"/>
       </tp>
       <tp>
-        <v>0.136686524</v>
+        <v>0.134259409</v>
         <stp/>
         <stp>_x0008_SEK6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI28" s="7"/>
@@ -1997,175 +1999,177 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-0.57790000099999994</v>
+        <v>-0.53639999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD9" s="7"/>
       </tp>
       <tp>
-        <v>-0.577980838</v>
+        <v>-0.53541814700000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD8" s="7"/>
       </tp>
       <tp>
-        <v>-0.57740000199999997</v>
+        <v>-0.5383</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD10" s="7"/>
       </tp>
       <tp>
-        <v>-0.57679999999999998</v>
+        <v>-0.53979999999999995</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD11" s="7"/>
       </tp>
       <tp>
-        <v>-0.57599999999999996</v>
+        <v>-0.54500000000000004</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD12" s="7"/>
       </tp>
       <tp>
-        <v>2.5037538580000001</v>
+        <v>2.49707305</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI39" s="7"/>
       </tp>
       <tp>
-        <v>2.3683742809999999</v>
+        <v>2.3642954070000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI38" s="7"/>
       </tp>
       <tp>
-        <v>2.528435859</v>
+        <v>2.521652708</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI40" s="7"/>
       </tp>
       <tp>
-        <v>2.1034148109999999</v>
+        <v>2.0997436810000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI37" s="7"/>
       </tp>
       <tp>
-        <v>1.6284665060000001</v>
+        <v>1.6551117390000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI35" s="7"/>
       </tp>
       <tp>
-        <v>1.8530756560000001</v>
+        <v>1.866910396</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI36" s="7"/>
       </tp>
       <tp>
-        <v>1.489342591</v>
+        <v>1.523591302</v>
         <stp/>
         <stp>_x0008_SEK6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH34" s="7"/>
       </tp>
       <tp>
-        <v>1.3271693600000001</v>
+        <v>1.3641222850000001</v>
         <stp/>
         <stp>_x0008_SEK6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH33" s="7"/>
       </tp>
       <tp>
-        <v>1.142619007</v>
+        <v>1.1722723589999999</v>
         <stp/>
         <stp>_x0008_SEK6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH32" s="7"/>
       </tp>
       <tp>
-        <v>0.92805969899999996</v>
+        <v>0.95061551099999997</v>
         <stp/>
         <stp>_x0008_SEK6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH31" s="7"/>
       </tp>
       <tp>
-        <v>0.67849258500000009</v>
+        <v>0.69895284999999996</v>
         <stp/>
         <stp>_x0008_SEK6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH30" s="7"/>
       </tp>
       <tp>
-        <v>0.40635306399999999</v>
+        <v>0.41511673399999999</v>
         <stp/>
         <stp>_x0008_SEK6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH29" s="7"/>
       </tp>
       <tp>
-        <v>0.136686524</v>
+        <v>0.134259409</v>
         <stp/>
         <stp>_x0008_SEK6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH28" s="7"/>
       </tp>
       <tp>
-        <v>-9.2841527000000007E-2</v>
+        <v>-9.7738440999999995E-2</v>
         <stp/>
         <stp>_x0008_SEK6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH27" s="7"/>
       </tp>
       <tp>
-        <v>-0.256343608</v>
+        <v>-0.20705973900000002</v>
         <stp/>
         <stp>_x0008_SEK6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH26" s="7"/>
       </tp>
-      <tp>
-        <v>1.287589254</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>1.320173163</v>
         <stp/>
         <stp>_x0008_SEK1M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD34" s="7"/>
       </tp>
       <tp>
-        <v>1.1249826540000001</v>
+        <v>1.1600644390000001</v>
         <stp/>
         <stp>_x0008_SEK1M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD33" s="7"/>
       </tp>
       <tp>
-        <v>0.93985594399999994</v>
+        <v>0.96744045800000011</v>
         <stp/>
         <stp>_x0008_SEK1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD32" s="7"/>
       </tp>
       <tp>
-        <v>0.72484251499999997</v>
+        <v>0.74482905099999996</v>
         <stp/>
         <stp>_x0008_SEK1M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD31" s="7"/>
       </tp>
       <tp>
-        <v>0.47494132699999997</v>
+        <v>0.49242859899999997</v>
         <stp/>
         <stp>_x0008_SEK1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD30" s="7"/>
       </tp>
       <tp>
-        <v>0.20291912600000001</v>
+        <v>0.20791242799999998</v>
         <stp/>
         <stp>_x0008_SEK1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD29" s="7"/>
       </tp>
       <tp>
-        <v>-6.4450658999999993E-2</v>
+        <v>-7.1948712999999997E-2</v>
         <stp/>
         <stp>_x0008_SEK1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD28" s="7"/>
       </tp>
       <tp>
-        <v>-0.28861830700000002</v>
+        <v>-0.30111220699999997</v>
         <stp/>
         <stp>_x0008_SEK1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD27" s="7"/>
       </tp>
       <tp>
-        <v>-0.446087917</v>
+        <v>-0.436091065</v>
         <stp/>
         <stp>_x0008_SEK1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD26" s="7"/>
@@ -2173,295 +2177,295 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.3900000000000001</v>
+        <v>1.4224999999999999</v>
         <stp/>
         <stp>_x0008_SEK3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF34" s="7"/>
       </tp>
       <tp>
-        <v>1.2275</v>
+        <v>1.2625</v>
         <stp/>
         <stp>_x0008_SEK3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF33" s="7"/>
       </tp>
       <tp>
-        <v>1.0425</v>
+        <v>1.07</v>
         <stp/>
         <stp>_x0008_SEK3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF32" s="7"/>
       </tp>
       <tp>
-        <v>0.82750000000000001</v>
+        <v>0.84749999999999992</v>
         <stp/>
         <stp>_x0008_SEK3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF31" s="7"/>
       </tp>
       <tp>
-        <v>0.57750000000000001</v>
+        <v>0.59499999999999997</v>
         <stp/>
         <stp>_x0008_SEK3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF30" s="7"/>
       </tp>
       <tp>
-        <v>0.30499999999999999</v>
+        <v>0.31</v>
         <stp/>
         <stp>_x0008_SEK3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF29" s="7"/>
       </tp>
       <tp>
-        <v>3.4999999999999996E-2</v>
+        <v>2.7500000000000004E-2</v>
         <stp/>
         <stp>_x0008_SEK3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF28" s="7"/>
       </tp>
       <tp>
-        <v>-0.19500000000000001</v>
+        <v>-0.20750000000000002</v>
         <stp/>
         <stp>_x0008_SEK3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF27" s="7"/>
       </tp>
       <tp>
-        <v>-0.35938545399999999</v>
+        <v>-0.32523211000000002</v>
         <stp/>
         <stp>_x0008_SEK3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF26" s="7"/>
       </tp>
       <tp>
-        <v>2.4325000000000001</v>
+        <v>2.4249999999999998</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF39" s="7"/>
       </tp>
       <tp>
-        <v>2.29</v>
+        <v>2.2850000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF38" s="7"/>
       </tp>
       <tp>
-        <v>2.4624999999999999</v>
+        <v>2.4550000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF40" s="7"/>
       </tp>
       <tp>
-        <v>2.0150000000000001</v>
+        <v>2.0099999999999998</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF37" s="7"/>
       </tp>
       <tp>
-        <v>1.7575000000000001</v>
+        <v>1.77</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF36" s="7"/>
       </tp>
       <tp>
-        <v>1.53</v>
+        <v>1.5549999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF35" s="7"/>
       </tp>
       <tp>
-        <v>2.3427451000000001</v>
+        <v>2.3351422820000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD39" s="7"/>
       </tp>
       <tp>
-        <v>2.1959009279999999</v>
+        <v>2.1907980829999998</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD38" s="7"/>
       </tp>
       <tp>
-        <v>2.375094577</v>
+        <v>2.3674917689999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD40" s="7"/>
       </tp>
       <tp>
-        <v>1.91559148</v>
+        <v>1.9104890299999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD37" s="7"/>
       </tp>
       <tp>
-        <v>1.6557591119999999</v>
+        <v>1.6681475400000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD36" s="7"/>
       </tp>
       <tp>
-        <v>1.4278403420000001</v>
+        <v>1.452824718</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD35" s="7"/>
       </tp>
       <tp>
-        <v>-0.319632154</v>
+        <v>-0.22602914599999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI9" s="7"/>
       </tp>
       <tp>
-        <v>-0.31983516400000001</v>
+        <v>-0.22516879699999998</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI8" s="7"/>
       </tp>
       <tp>
-        <v>-0.29399999999999998</v>
+        <v>-0.22700000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI17" s="7"/>
       </tp>
       <tp>
-        <v>-0.30019999999999997</v>
+        <v>-0.22970000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI15" s="7"/>
       </tp>
       <tp>
-        <v>-0.2949</v>
+        <v>-0.2273</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI16" s="7"/>
       </tp>
       <tp>
-        <v>-0.31843410900000002</v>
+        <v>-0.22782121499999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI10" s="7"/>
       </tp>
       <tp>
-        <v>-0.30740000000000001</v>
+        <v>-0.24580000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI13" s="7"/>
       </tp>
       <tp>
-        <v>-0.31700864200000001</v>
+        <v>-0.22926353000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI11" s="7"/>
       </tp>
       <tp>
-        <v>-0.30619999999999997</v>
+        <v>-0.2364</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI14" s="7"/>
       </tp>
       <tp>
-        <v>-0.31509999999999999</v>
+        <v>-0.23420000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI12" s="7"/>
       </tp>
       <tp>
-        <v>2.5037538580000001</v>
+        <v>2.49707305</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH39" s="7"/>
       </tp>
       <tp>
-        <v>2.3683742809999999</v>
+        <v>2.3642954070000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH38" s="7"/>
       </tp>
       <tp>
-        <v>2.528435859</v>
+        <v>2.521652708</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH40" s="7"/>
       </tp>
       <tp>
-        <v>2.1034148109999999</v>
+        <v>2.0997436810000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH37" s="7"/>
       </tp>
       <tp>
-        <v>1.8530756560000001</v>
+        <v>1.866910396</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH36" s="7"/>
       </tp>
       <tp>
-        <v>1.6284665060000001</v>
+        <v>1.6551117390000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH35" s="7"/>
       </tp>
       <tp>
-        <v>-0.57790000099999994</v>
+        <v>-0.53639999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE9" s="7"/>
       </tp>
       <tp>
-        <v>-0.577980838</v>
+        <v>-0.53541814700000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE8" s="7"/>
       </tp>
       <tp>
-        <v>-0.57740000199999997</v>
+        <v>-0.5383</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE10" s="7"/>
       </tp>
       <tp>
-        <v>-0.57679999999999998</v>
+        <v>-0.53979999999999995</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE11" s="7"/>
       </tp>
       <tp>
-        <v>-0.57599999999999996</v>
+        <v>-0.54500000000000004</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE12" s="7"/>
       </tp>
       <tp>
-        <v>-0.55280895299999999</v>
+        <v>-0.36213601600000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG9" s="7"/>
       </tp>
       <tp>
-        <v>-0.55427860100000004</v>
+        <v>-0.36118646700000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG8" s="7"/>
       </tp>
       <tp>
-        <v>-0.54405234899999999</v>
+        <v>-0.36412160499999996</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG10" s="7"/>
       </tp>
       <tp>
-        <v>-0.46580000000000005</v>
+        <v>-0.38490000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG13" s="7"/>
       </tp>
       <tp>
-        <v>-0.53360393100000003</v>
+        <v>-0.365721303</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG11" s="7"/>
       </tp>
       <tp>
-        <v>-0.43499999999999994</v>
+        <v>-0.377</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG14" s="7"/>
       </tp>
       <tp>
-        <v>-0.51959999999999995</v>
+        <v>-0.37119999999999997</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG12" s="7"/>
@@ -2469,31 +2473,31 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>100.37</v>
+        <v>100.355</v>
         <stp/>
         <stp>_x0007_SEK3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF19" s="7"/>
       </tp>
       <tp>
-        <v>100.09</v>
+        <v>100.01</v>
         <stp/>
         <stp>_x0007_SEK3MH7_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF23" s="7"/>
       </tp>
       <tp>
-        <v>100.34</v>
+        <v>100.31</v>
         <stp/>
         <stp>_x0007_SEK3MM6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF20" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>99.87</v>
         <stp/>
         <stp>_x0007_SEK3MM7_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF24" s="7"/>
       </tp>
       <tp>
-        <v>100.28</v>
+        <v>100.24</v>
         <stp/>
         <stp>_x0007_SEK3MU6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF21" s="7"/>
@@ -2505,13 +2509,13 @@
         <tr r="AF25" s="7"/>
       </tp>
       <tp>
-        <v>100.19499999999999</v>
+        <v>100.13500000000001</v>
         <stp/>
         <stp>_x0007_SEK3MZ6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF22" s="7"/>
       </tp>
       <tp>
-        <v>100.19499999999999</v>
+        <v>100.13500000000001</v>
         <stp/>
         <stp>_x0007_SEK3MZ6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG22" s="7"/>
@@ -2523,31 +2527,31 @@
         <tr r="AG25" s="7"/>
       </tp>
       <tp>
-        <v>100.28</v>
+        <v>100.24</v>
         <stp/>
         <stp>_x0007_SEK3MU6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG21" s="7"/>
       </tp>
       <tp>
-        <v>100.09</v>
+        <v>100.01</v>
         <stp/>
         <stp>_x0007_SEK3MH7_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG23" s="7"/>
       </tp>
       <tp>
-        <v>100.37</v>
+        <v>100.355</v>
         <stp/>
         <stp>_x0007_SEK3MH6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG19" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>99.87</v>
         <stp/>
         <stp>_x0007_SEK3MM7_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG24" s="7"/>
       </tp>
       <tp>
-        <v>100.34</v>
+        <v>100.31</v>
         <stp/>
         <stp>_x0007_SEK3MM6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG20" s="7"/>
@@ -2579,7 +2583,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>4</v>
+            <v>42</v>
           </cell>
         </row>
       </sheetData>
@@ -2980,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="178">
-        <v>42347.657847222225</v>
+        <v>42354.613796296297</v>
       </c>
       <c r="E4" s="136"/>
     </row>
@@ -2991,7 +2995,7 @@
       </c>
       <c r="D5" s="124">
         <f>[1]!TriggerCounter</f>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E5" s="136"/>
     </row>
@@ -3002,7 +3006,7 @@
       </c>
       <c r="D6" s="141">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="E6" s="136"/>
     </row>
@@ -3128,7 +3132,7 @@
       </c>
       <c r="D20" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="E20" s="136"/>
     </row>
@@ -3428,11 +3432,11 @@
       </c>
       <c r="N6" s="9">
         <f>'ON Pricing'!H6*100</f>
-        <v>-0.37310340149715748</v>
+        <v>-0.37999426308398859</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" ref="O6:O7" si="1">N6</f>
-        <v>-0.37310340149715748</v>
+        <v>-0.37999426308398859</v>
       </c>
       <c r="P6" s="86"/>
       <c r="Q6" s="87"/>
@@ -3450,11 +3454,11 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>8.5284497157500638E-5</v>
+        <v>8.3988593857498017E-11</v>
       </c>
       <c r="AC6" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>8.5284497157500638E-5</v>
+        <v>8.3988593857498017E-11</v>
       </c>
       <c r="AD6" s="88"/>
       <c r="AE6" s="88"/>
@@ -3488,11 +3492,11 @@
       </c>
       <c r="N7" s="13">
         <f>'ON Pricing'!H7*100</f>
-        <v>-0.37304948752561551</v>
+        <v>-0.38011629383414441</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="1"/>
-        <v>-0.37304948752561551</v>
+        <v>-0.38011629383414441</v>
       </c>
       <c r="P7" s="102"/>
       <c r="Q7" s="103"/>
@@ -3510,11 +3514,11 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>5.7139525615479414E-5</v>
+        <v>1.6585560702608859E-10</v>
       </c>
       <c r="AC7" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>5.7139525615479414E-5</v>
+        <v>1.6585560702608859E-10</v>
       </c>
       <c r="AD7" s="104"/>
       <c r="AE7" s="104"/>
@@ -3555,35 +3559,35 @@
       </c>
       <c r="Q8" s="90">
         <f>'1M Pricing'!H8*100</f>
-        <v>-0.65018895607904525</v>
+        <v>-0.53541815647761837</v>
       </c>
       <c r="R8" s="90">
         <f t="shared" ref="R8" si="3">Q8</f>
-        <v>-0.65018895607904525</v>
+        <v>-0.53541815647761837</v>
       </c>
       <c r="S8" s="10" t="str">
         <f t="shared" ref="S8:S14" si="4">Currency&amp;$S$4&amp;C8&amp;"D="</f>
         <v>SEK3MSND=</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="11" t="e">
         <f>'3M Pricing'!H8*100</f>
-        <v>-0.43173322945877501</v>
-      </c>
-      <c r="U8" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U8" s="11" t="e">
         <f t="shared" ref="U8" si="5">T8</f>
-        <v>-0.43173322945877501</v>
+        <v>#NUM!</v>
       </c>
       <c r="V8" s="10" t="str">
         <f t="shared" ref="V8:V17" si="6">Currency&amp;$V$4&amp;C8&amp;"D="</f>
         <v>SEK6MSND=</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="11" t="e">
         <f>'6M Pricing'!H8*100</f>
-        <v>-0.31662669481091754</v>
-      </c>
-      <c r="X8" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X8" s="11" t="e">
         <f t="shared" ref="X8" si="7">W8</f>
-        <v>-0.31662669481091754</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y8" s="67" t="s">
         <v>56</v>
@@ -3594,27 +3598,27 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
-        <v>7.2208118079045258E-2</v>
+        <v>9.4776183567901739E-9</v>
       </c>
       <c r="AE8" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
-        <v>7.2208118079045258E-2</v>
-      </c>
-      <c r="AF8" s="11">
+        <v>9.4776183567901739E-9</v>
+      </c>
+      <c r="AF8" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>0.12254537154122502</v>
-      </c>
-      <c r="AG8" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG8" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>0.12254537154122502</v>
-      </c>
-      <c r="AH8" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH8" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V8,BID)-W8)</f>
-        <v>3.2084691890824635E-3</v>
-      </c>
-      <c r="AI8" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI8" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V8,ASK)-X8)</f>
-        <v>3.2084691890824635E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ8" s="33"/>
     </row>
@@ -3649,35 +3653,35 @@
       </c>
       <c r="Q9" s="90">
         <f>'1M Pricing'!H9*100</f>
-        <v>-0.64899999997456648</v>
+        <v>-0.53640000014811839</v>
       </c>
       <c r="R9" s="90">
         <f t="shared" ref="R9:R12" si="8">Q9</f>
-        <v>-0.64899999997456648</v>
+        <v>-0.53640000014811839</v>
       </c>
       <c r="S9" s="10" t="str">
         <f t="shared" si="4"/>
         <v>SEK3MSWD=</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="11" t="e">
         <f>'3M Pricing'!H9*100</f>
-        <v>-0.43156032758704588</v>
-      </c>
-      <c r="U9" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U9" s="11" t="e">
         <f t="shared" ref="U9:U14" si="9">T9</f>
-        <v>-0.43156032758704588</v>
+        <v>#NUM!</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6MSWD=</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="11" t="e">
         <f>'6M Pricing'!H9*100</f>
-        <v>-0.31607501497237839</v>
-      </c>
-      <c r="X9" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X9" s="11" t="e">
         <f t="shared" ref="X9:X17" si="10">W9</f>
-        <v>-0.31607501497237839</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y9" s="67" t="s">
         <v>56</v>
@@ -3688,27 +3692,27 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
-        <v>7.1099998974566536E-2</v>
+        <v>1.4811840642892093E-10</v>
       </c>
       <c r="AE9" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
-        <v>7.1099998974566536E-2</v>
-      </c>
-      <c r="AF9" s="11">
+        <v>1.4811840642892093E-10</v>
+      </c>
+      <c r="AF9" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>0.12124862541295411</v>
-      </c>
-      <c r="AG9" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG9" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>0.12124862541295411</v>
-      </c>
-      <c r="AH9" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH9" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V9,BID)-W9)</f>
-        <v>3.5571390276216142E-3</v>
-      </c>
-      <c r="AI9" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI9" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V9,ASK)-X9)</f>
-        <v>3.5571390276216142E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ9" s="33" t="s">
         <v>56</v>
@@ -3745,35 +3749,35 @@
       </c>
       <c r="Q10" s="90">
         <f>'1M Pricing'!H10*100</f>
-        <v>-0.64860000000002482</v>
+        <v>-0.53830000010503831</v>
       </c>
       <c r="R10" s="90">
         <f t="shared" si="8"/>
-        <v>-0.64860000000002482</v>
+        <v>-0.53830000010503831</v>
       </c>
       <c r="S10" s="10" t="str">
         <f t="shared" si="4"/>
         <v>SEK3M2WD=</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="11" t="e">
         <f>'3M Pricing'!H10*100</f>
-        <v>-0.43149634943394893</v>
-      </c>
-      <c r="U10" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U10" s="11" t="e">
         <f t="shared" si="9"/>
-        <v>-0.43149634943394893</v>
+        <v>#NUM!</v>
       </c>
       <c r="V10" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M2WD=</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="11" t="e">
         <f>'6M Pricing'!H10*100</f>
-        <v>-0.31585714105512119</v>
-      </c>
-      <c r="X10" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X10" s="11" t="e">
         <f t="shared" si="10"/>
-        <v>-0.31585714105512119</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y10" s="67" t="s">
         <v>56</v>
@@ -3784,27 +3788,27 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
-        <v>7.1199998000024856E-2</v>
+        <v>1.0503831138208852E-10</v>
       </c>
       <c r="AE10" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
-        <v>7.1199998000024856E-2</v>
-      </c>
-      <c r="AF10" s="11">
+        <v>1.0503831138208852E-10</v>
+      </c>
+      <c r="AF10" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
-        <v>0.11255599956605106</v>
-      </c>
-      <c r="AG10" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG10" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
-        <v>0.11255599956605106</v>
-      </c>
-      <c r="AH10" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH10" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V10,BID)-W10)</f>
-        <v>2.5769679448788274E-3</v>
-      </c>
-      <c r="AI10" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI10" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V10,ASK)-X10)</f>
-        <v>2.5769679448788274E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ10" s="33" t="s">
         <v>56</v>
@@ -3841,35 +3845,35 @@
       </c>
       <c r="Q11" s="90">
         <f>'1M Pricing'!H11*100</f>
-        <v>-0.64829999999987153</v>
+        <v>-0.53980000004694162</v>
       </c>
       <c r="R11" s="90">
         <f t="shared" si="8"/>
-        <v>-0.64829999999987153</v>
+        <v>-0.53980000004694162</v>
       </c>
       <c r="S11" s="10" t="str">
         <f t="shared" si="4"/>
         <v>SEK3M3WD=</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="11" t="e">
         <f>'3M Pricing'!H11*100</f>
-        <v>-0.43114246767908937</v>
-      </c>
-      <c r="U11" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U11" s="11" t="e">
         <f t="shared" si="9"/>
-        <v>-0.43114246767908937</v>
+        <v>#NUM!</v>
       </c>
       <c r="V11" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M3WD=</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="11" t="e">
         <f>'6M Pricing'!H11*100</f>
-        <v>-0.31462724797500941</v>
-      </c>
-      <c r="X11" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X11" s="11" t="e">
         <f t="shared" si="10"/>
-        <v>-0.31462724797500941</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y11" s="67" t="s">
         <v>56</v>
@@ -3880,27 +3884,27 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
-        <v>7.1499999999871555E-2</v>
+        <v>4.6941672771083631E-11</v>
       </c>
       <c r="AE11" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
-        <v>7.1499999999871555E-2</v>
-      </c>
-      <c r="AF11" s="11">
+        <v>4.6941672771083631E-11</v>
+      </c>
+      <c r="AF11" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
-        <v>0.10246146332091066</v>
-      </c>
-      <c r="AG11" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG11" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
-        <v>0.10246146332091066</v>
-      </c>
-      <c r="AH11" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH11" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V11,BID)-W11)</f>
-        <v>2.3813940249906018E-3</v>
-      </c>
-      <c r="AI11" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI11" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V11,ASK)-X11)</f>
-        <v>2.3813940249906018E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ11" s="33" t="s">
         <v>56</v>
@@ -3937,11 +3941,11 @@
       </c>
       <c r="N12" s="11">
         <f>'ON Pricing'!H12*100</f>
-        <v>-0.37100000000035716</v>
+        <v>-0.39000000000010532</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" ref="O12" si="11">N12</f>
-        <v>-0.37100000000035716</v>
+        <v>-0.39000000000010532</v>
       </c>
       <c r="P12" s="89" t="str">
         <f t="shared" si="2"/>
@@ -3949,35 +3953,35 @@
       </c>
       <c r="Q12" s="90">
         <f>'1M Pricing'!H12*100</f>
-        <v>-0.64719999999927891</v>
+        <v>-0.54499999998377979</v>
       </c>
       <c r="R12" s="90">
         <f t="shared" si="8"/>
-        <v>-0.64719999999927891</v>
+        <v>-0.54499999998377979</v>
       </c>
       <c r="S12" s="10" t="str">
         <f t="shared" si="4"/>
         <v>SEK3M1MD=</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="11" t="e">
         <f>'3M Pricing'!H12*100</f>
-        <v>-0.43039999999994194</v>
-      </c>
-      <c r="U12" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U12" s="11" t="e">
         <f t="shared" si="9"/>
-        <v>-0.43039999999994194</v>
+        <v>#NUM!</v>
       </c>
       <c r="V12" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M1MD=</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="11" t="e">
         <f>'6M Pricing'!H12*100</f>
-        <v>-0.31199999999989569</v>
-      </c>
-      <c r="X12" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X12" s="11" t="e">
         <f t="shared" si="10"/>
-        <v>-0.31199999999989569</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y12" s="67" t="s">
         <v>56</v>
@@ -3986,35 +3990,35 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>3.5715874702191286E-13</v>
+        <v>1.053046538856961E-13</v>
       </c>
       <c r="AC12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>3.5715874702191286E-13</v>
+        <v>1.053046538856961E-13</v>
       </c>
       <c r="AD12" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
-        <v>7.1199999999278951E-2</v>
+        <v>1.6220247367471075E-11</v>
       </c>
       <c r="AE12" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
-        <v>7.1199999999278951E-2</v>
-      </c>
-      <c r="AF12" s="11">
+        <v>1.6220247367471075E-11</v>
+      </c>
+      <c r="AF12" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>8.9200000000058011E-2</v>
-      </c>
-      <c r="AG12" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG12" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>8.9200000000058011E-2</v>
-      </c>
-      <c r="AH12" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH12" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V12,BID)-W12)</f>
-        <v>3.1000000001042971E-3</v>
-      </c>
-      <c r="AI12" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI12" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V12,ASK)-X12)</f>
-        <v>3.1000000001042971E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ12" s="33" t="s">
         <v>56</v>
@@ -4050,11 +4054,11 @@
       </c>
       <c r="N13" s="11">
         <f>'ON Pricing'!H13*100</f>
-        <v>-0.37000000000364863</v>
+        <v>-0.40300000000000979</v>
       </c>
       <c r="O13" s="11">
         <f t="shared" ref="O13:O40" si="12">N13</f>
-        <v>-0.37000000000364863</v>
+        <v>-0.40300000000000979</v>
       </c>
       <c r="P13" s="89"/>
       <c r="Q13" s="90"/>
@@ -4063,25 +4067,25 @@
         <f t="shared" si="4"/>
         <v>SEK3M2MD=</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="11" t="e">
         <f>'3M Pricing'!H13*100</f>
-        <v>-0.43090000004891899</v>
-      </c>
-      <c r="U13" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U13" s="11" t="e">
         <f t="shared" si="9"/>
-        <v>-0.43090000004891899</v>
+        <v>#NUM!</v>
       </c>
       <c r="V13" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M2MD=</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="11" t="e">
         <f>'6M Pricing'!H13*100</f>
-        <v>-0.30509999999995785</v>
-      </c>
-      <c r="X13" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X13" s="11" t="e">
         <f t="shared" si="10"/>
-        <v>-0.30509999999995785</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y13" s="67" t="s">
         <v>56</v>
@@ -4090,29 +4094,29 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M13,BID)-N13)</f>
-        <v>3.6486369481281145E-12</v>
+        <v>9.7699626167013776E-15</v>
       </c>
       <c r="AC13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M13,ASK)-O13)</f>
-        <v>3.6486369481281145E-12</v>
+        <v>9.7699626167013776E-15</v>
       </c>
       <c r="AD13" s="91"/>
       <c r="AE13" s="91"/>
-      <c r="AF13" s="11">
+      <c r="AF13" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>3.4899999951081062E-2</v>
-      </c>
-      <c r="AG13" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG13" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>3.4899999951081062E-2</v>
-      </c>
-      <c r="AH13" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH13" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V13,BID)-W13)</f>
-        <v>2.3000000000421572E-3</v>
-      </c>
-      <c r="AI13" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI13" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V13,ASK)-X13)</f>
-        <v>2.3000000000421572E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ13" s="33" t="s">
         <v>56</v>
@@ -4148,11 +4152,11 @@
       </c>
       <c r="N14" s="11">
         <f>'ON Pricing'!H14*100</f>
-        <v>-0.37500000000726608</v>
+        <v>-0.39499999999997443</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="12"/>
-        <v>-0.37500000000726608</v>
+        <v>-0.39499999999997443</v>
       </c>
       <c r="P14" s="92"/>
       <c r="Q14" s="93"/>
@@ -4161,25 +4165,25 @@
         <f t="shared" si="4"/>
         <v>SEK3M3MD=</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="11" t="e">
         <f>'3M Pricing'!H14*100</f>
-        <v>-0.43499999999997302</v>
-      </c>
-      <c r="U14" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U14" s="11" t="e">
         <f t="shared" si="9"/>
-        <v>-0.43499999999997302</v>
+        <v>#NUM!</v>
       </c>
       <c r="V14" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M3MD=</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="11" t="e">
         <f>'6M Pricing'!H14*100</f>
-        <v>-0.30429999999136076</v>
-      </c>
-      <c r="X14" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X14" s="11" t="e">
         <f t="shared" si="10"/>
-        <v>-0.30429999999136076</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y14" s="67" t="s">
         <v>56</v>
@@ -4188,29 +4192,29 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M14,BID)-N14)</f>
-        <v>7.266076629264262E-12</v>
+        <v>2.5590640717609858E-14</v>
       </c>
       <c r="AC14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M14,ASK)-O14)</f>
-        <v>7.266076629264262E-12</v>
+        <v>2.5590640717609858E-14</v>
       </c>
       <c r="AD14" s="94"/>
       <c r="AE14" s="94"/>
-      <c r="AF14" s="11">
+      <c r="AF14" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>2.6922908347160046E-14</v>
-      </c>
-      <c r="AG14" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG14" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>2.6922908347160046E-14</v>
-      </c>
-      <c r="AH14" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH14" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V14,BID)-W14)</f>
-        <v>1.9000000086392133E-3</v>
-      </c>
-      <c r="AI14" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI14" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V14,ASK)-X14)</f>
-        <v>1.9000000086392133E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ14" s="33" t="s">
         <v>56</v>
@@ -4245,11 +4249,11 @@
       </c>
       <c r="N15" s="11">
         <f>'ON Pricing'!H15*100</f>
-        <v>-0.37586216338624817</v>
+        <v>-0.38970079325563522</v>
       </c>
       <c r="O15" s="11">
         <f t="shared" si="12"/>
-        <v>-0.37586216338624817</v>
+        <v>-0.38970079325563522</v>
       </c>
       <c r="P15" s="89"/>
       <c r="Q15" s="90"/>
@@ -4261,13 +4265,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M4MD=</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="11" t="e">
         <f>'6M Pricing'!H15*100</f>
-        <v>-0.2987999999999974</v>
-      </c>
-      <c r="X15" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X15" s="11" t="e">
         <f t="shared" si="10"/>
-        <v>-0.2987999999999974</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y15" s="67" t="s">
         <v>56</v>
@@ -4276,23 +4280,23 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M15,BID)-N15)</f>
-        <v>1.6832138624817139E-4</v>
+        <v>2.5563523520233389E-10</v>
       </c>
       <c r="AC15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M15,ASK)-O15)</f>
-        <v>1.6832138624817139E-4</v>
+        <v>2.5563523520233389E-10</v>
       </c>
       <c r="AD15" s="91"/>
       <c r="AE15" s="91"/>
       <c r="AF15" s="71"/>
       <c r="AG15" s="71"/>
-      <c r="AH15" s="11">
+      <c r="AH15" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V15,BID)-W15)</f>
-        <v>1.4000000000025659E-3</v>
-      </c>
-      <c r="AI15" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI15" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V15,ASK)-X15)</f>
-        <v>1.4000000000025659E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ15" s="33" t="s">
         <v>56</v>
@@ -4327,11 +4331,11 @@
       </c>
       <c r="N16" s="11">
         <f>'ON Pricing'!H16*100</f>
-        <v>-0.37718626484859058</v>
+        <v>-0.38868843350774984</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="12"/>
-        <v>-0.37718626484859058</v>
+        <v>-0.38868843350774984</v>
       </c>
       <c r="P16" s="89"/>
       <c r="Q16" s="90"/>
@@ -4343,13 +4347,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M5MD=</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="11" t="e">
         <f>'6M Pricing'!H16*100</f>
-        <v>-0.29429999999999584</v>
-      </c>
-      <c r="X16" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X16" s="11" t="e">
         <f t="shared" si="10"/>
-        <v>-0.29429999999999584</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y16" s="67" t="s">
         <v>56</v>
@@ -4358,23 +4362,23 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M16,BID)-N16)</f>
-        <v>3.6574984859055748E-4</v>
+        <v>4.9225012954678959E-10</v>
       </c>
       <c r="AC16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M16,ASK)-O16)</f>
-        <v>3.6574984859055748E-4</v>
+        <v>4.9225012954678959E-10</v>
       </c>
       <c r="AD16" s="91"/>
       <c r="AE16" s="91"/>
       <c r="AF16" s="71"/>
       <c r="AG16" s="71"/>
-      <c r="AH16" s="11">
+      <c r="AH16" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V16,BID)-W16)</f>
-        <v>6.0000000000415277E-4</v>
-      </c>
-      <c r="AI16" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI16" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V16,ASK)-X16)</f>
-        <v>6.0000000000415277E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ16" s="33" t="s">
         <v>56</v>
@@ -4410,11 +4414,11 @@
       </c>
       <c r="N17" s="11">
         <f>'ON Pricing'!H17*100</f>
-        <v>-0.38300000000002582</v>
+        <v>-0.38999999999994089</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="12"/>
-        <v>-0.38300000000002582</v>
+        <v>-0.38999999999994089</v>
       </c>
       <c r="P17" s="92"/>
       <c r="Q17" s="93"/>
@@ -4426,13 +4430,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M6MD=</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="11" t="e">
         <f>'6M Pricing'!H17*100</f>
-        <v>-0.29399999999767595</v>
-      </c>
-      <c r="X17" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X17" s="11" t="e">
         <f t="shared" si="10"/>
-        <v>-0.29399999999767595</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y17" s="67" t="s">
         <v>56</v>
@@ -4441,23 +4445,23 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M17,BID)-N17)</f>
-        <v>2.581268532253489E-14</v>
+        <v>5.9119376061289586E-14</v>
       </c>
       <c r="AC17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M17,ASK)-O17)</f>
-        <v>2.581268532253489E-14</v>
+        <v>5.9119376061289586E-14</v>
       </c>
       <c r="AD17" s="94"/>
       <c r="AE17" s="94"/>
       <c r="AF17" s="71"/>
       <c r="AG17" s="71"/>
-      <c r="AH17" s="11">
+      <c r="AH17" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V17,BID)-W17)</f>
-        <v>2.3240298574478402E-12</v>
-      </c>
-      <c r="AI17" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI17" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V17,ASK)-X17)</f>
-        <v>2.3240298574478402E-12</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ17" s="33" t="s">
         <v>56</v>
@@ -4491,11 +4495,11 @@
       </c>
       <c r="N18" s="11">
         <f>'ON Pricing'!H18*100</f>
-        <v>-0.4050000000000199</v>
+        <v>-0.39199999999995261</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="12"/>
-        <v>-0.4050000000000199</v>
+        <v>-0.39199999999995261</v>
       </c>
       <c r="P18" s="92"/>
       <c r="Q18" s="93"/>
@@ -4513,11 +4517,11 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M18,BID)-N18)</f>
-        <v>1.992850329202156E-14</v>
+        <v>4.7406523151494184E-14</v>
       </c>
       <c r="AC18" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M18,ASK)-O18)</f>
-        <v>1.992850329202156E-14</v>
+        <v>4.7406523151494184E-14</v>
       </c>
       <c r="AD18" s="97"/>
       <c r="AE18" s="97"/>
@@ -4534,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="85">
-        <f t="array" ref="B19:B25">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)+1,A19:A25)</f>
+        <f t="array" ref="B19:B25">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)+2,A19:A25)</f>
         <v>42445</v>
       </c>
       <c r="C19" s="65" t="str">
@@ -4569,13 +4573,13 @@
         <f t="shared" ref="S19:S24" si="13">Currency&amp;$S$4&amp;C19</f>
         <v>SEK3MH6</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="9" t="e">
         <f>'3M Pricing'!H19</f>
-        <v>100.370000000034</v>
-      </c>
-      <c r="U19" s="9">
+        <v>#NUM!</v>
+      </c>
+      <c r="U19" s="9" t="e">
         <f t="shared" ref="U19:U24" si="14">T19</f>
-        <v>100.370000000034</v>
+        <v>#NUM!</v>
       </c>
       <c r="V19" s="68"/>
       <c r="W19" s="68"/>
@@ -4589,13 +4593,13 @@
       <c r="AC19" s="74"/>
       <c r="AD19" s="100"/>
       <c r="AE19" s="100"/>
-      <c r="AF19" s="9">
+      <c r="AF19" s="9" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S19,BID)-T19)</f>
-        <v>3.3992364478763193E-11</v>
-      </c>
-      <c r="AG19" s="9">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG19" s="9" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S19,ASK)-U19)</f>
-        <v>3.3992364478763193E-11</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH19" s="69"/>
       <c r="AI19" s="69"/>
@@ -4642,13 +4646,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MM6</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="11" t="e">
         <f>'3M Pricing'!H20</f>
-        <v>100.33999999981403</v>
-      </c>
-      <c r="U20" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U20" s="11" t="e">
         <f t="shared" si="14"/>
-        <v>100.33999999981403</v>
+        <v>#NUM!</v>
       </c>
       <c r="V20" s="70"/>
       <c r="W20" s="70"/>
@@ -4662,13 +4666,13 @@
       <c r="AC20" s="75"/>
       <c r="AD20" s="94"/>
       <c r="AE20" s="94"/>
-      <c r="AF20" s="11">
+      <c r="AF20" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S20,BID)-T20)</f>
-        <v>1.8597745565784862E-10</v>
-      </c>
-      <c r="AG20" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG20" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S20,ASK)-U20)</f>
-        <v>1.8597745565784862E-10</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH20" s="71"/>
       <c r="AI20" s="71"/>
@@ -4715,13 +4719,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MU6</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="11" t="e">
         <f>'3M Pricing'!H21</f>
-        <v>100.27999999999244</v>
-      </c>
-      <c r="U21" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U21" s="11" t="e">
         <f t="shared" si="14"/>
-        <v>100.27999999999244</v>
+        <v>#NUM!</v>
       </c>
       <c r="V21" s="70"/>
       <c r="W21" s="70"/>
@@ -4735,13 +4739,13 @@
       <c r="AC21" s="75"/>
       <c r="AD21" s="94"/>
       <c r="AE21" s="94"/>
-      <c r="AF21" s="11">
+      <c r="AF21" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S21,BID)-T21)</f>
-        <v>7.560174708487466E-12</v>
-      </c>
-      <c r="AG21" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG21" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S21,ASK)-U21)</f>
-        <v>7.560174708487466E-12</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH21" s="71"/>
       <c r="AI21" s="71"/>
@@ -4788,13 +4792,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MZ6</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="11" t="e">
         <f>'3M Pricing'!H22</f>
-        <v>100.19500000000004</v>
-      </c>
-      <c r="U22" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U22" s="11" t="e">
         <f t="shared" si="14"/>
-        <v>100.19500000000004</v>
+        <v>#NUM!</v>
       </c>
       <c r="V22" s="70"/>
       <c r="W22" s="70"/>
@@ -4808,13 +4812,13 @@
       <c r="AC22" s="75"/>
       <c r="AD22" s="94"/>
       <c r="AE22" s="94"/>
-      <c r="AF22" s="11">
+      <c r="AF22" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S22,BID)-T22)</f>
-        <v>4.2632564145606011E-14</v>
-      </c>
-      <c r="AG22" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG22" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S22,ASK)-U22)</f>
-        <v>4.2632564145606011E-14</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH22" s="71"/>
       <c r="AI22" s="71"/>
@@ -4861,13 +4865,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MH7</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="11" t="e">
         <f>'3M Pricing'!H23</f>
-        <v>100.09000000009011</v>
-      </c>
-      <c r="U23" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U23" s="11" t="e">
         <f t="shared" si="14"/>
-        <v>100.09000000009011</v>
+        <v>#NUM!</v>
       </c>
       <c r="V23" s="70"/>
       <c r="W23" s="70"/>
@@ -4881,13 +4885,13 @@
       <c r="AC23" s="75"/>
       <c r="AD23" s="94"/>
       <c r="AE23" s="94"/>
-      <c r="AF23" s="11">
+      <c r="AF23" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S23,BID)-T23)</f>
-        <v>9.0111029749095906E-11</v>
-      </c>
-      <c r="AG23" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG23" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S23,ASK)-U23)</f>
-        <v>9.0111029749095906E-11</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH23" s="71"/>
       <c r="AI23" s="71"/>
@@ -4932,13 +4936,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MM7</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="11" t="e">
         <f>'3M Pricing'!H24</f>
-        <v>99.96999999990858</v>
-      </c>
-      <c r="U24" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U24" s="11" t="e">
         <f t="shared" si="14"/>
-        <v>99.96999999990858</v>
+        <v>#NUM!</v>
       </c>
       <c r="V24" s="70"/>
       <c r="W24" s="70"/>
@@ -4952,13 +4956,13 @@
       <c r="AC24" s="75"/>
       <c r="AD24" s="94"/>
       <c r="AE24" s="94"/>
-      <c r="AF24" s="11">
+      <c r="AF24" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S24,BID)-T24)</f>
-        <v>99.96999999990858</v>
-      </c>
-      <c r="AG24" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG24" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S24,ASK)-U24)</f>
-        <v>99.96999999990858</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH24" s="71"/>
       <c r="AI24" s="71"/>
@@ -5003,13 +5007,13 @@
         <f t="shared" ref="S25" si="15">Currency&amp;$S$4&amp;C25</f>
         <v>SEK3MU7</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="13" t="e">
         <f>'3M Pricing'!H25</f>
-        <v>99.851343816258563</v>
-      </c>
-      <c r="U25" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="U25" s="13" t="e">
         <f t="shared" ref="U25" si="16">T25</f>
-        <v>99.851343816258563</v>
+        <v>#NUM!</v>
       </c>
       <c r="V25" s="72"/>
       <c r="W25" s="72"/>
@@ -5062,11 +5066,11 @@
         <f t="array" ref="J26:L40">S26:U40</f>
         <v>SEK3M1Y=</v>
       </c>
-      <c r="K26" s="11">
-        <v>-0.36140638024304433</v>
-      </c>
-      <c r="L26" s="11">
-        <v>-0.36140638024304433</v>
+      <c r="K26" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L26" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M26" s="10" t="str">
         <f t="shared" ref="M26:M40" si="17">Currency&amp;"ON"&amp;C26&amp;"D="</f>
@@ -5074,11 +5078,11 @@
       </c>
       <c r="N26" s="11">
         <f>'ON Pricing'!H26*100</f>
-        <v>-0.37999999999999151</v>
+        <v>-0.37500000000001177</v>
       </c>
       <c r="O26" s="11">
         <f>N26</f>
-        <v>-0.37999999999999151</v>
+        <v>-0.37500000000001177</v>
       </c>
       <c r="P26" s="92" t="str">
         <f t="shared" ref="P26:P40" si="18">Currency&amp;$P$4&amp;C26&amp;"="</f>
@@ -5086,75 +5090,75 @@
       </c>
       <c r="Q26" s="90">
         <f>'1M Pricing'!H26*100</f>
-        <v>-0.44608395151135094</v>
+        <v>-0.43616815593270997</v>
       </c>
       <c r="R26" s="90">
         <f t="shared" ref="R26" si="19">Q26</f>
-        <v>-0.44608395151135094</v>
+        <v>-0.43616815593270997</v>
       </c>
       <c r="S26" s="10" t="str">
         <f t="shared" ref="S26:S40" si="20">Currency&amp;$S$4&amp;C26&amp;"="</f>
         <v>SEK3M1Y=</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="11" t="e">
         <f>'3M Pricing'!H26*100</f>
-        <v>-0.36140638024304433</v>
-      </c>
-      <c r="U26" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U26" s="11" t="e">
         <f>T26</f>
-        <v>-0.36140638024304433</v>
+        <v>#NUM!</v>
       </c>
       <c r="V26" s="10" t="str">
         <f t="shared" ref="V26:V40" si="21">Currency&amp;$V$4&amp;C26&amp;"="</f>
         <v>SEK6M1Y=</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W26" s="11" t="e">
         <f>'6M Pricing'!H26*100</f>
-        <v>-0.25836944421581359</v>
-      </c>
-      <c r="X26" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X26" s="11" t="e">
         <f>W26</f>
-        <v>-0.25836944421581359</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y26" s="67"/>
-      <c r="Z26" s="11">
+      <c r="Z26" s="11" t="e">
         <f t="array" ref="Z26:AA40">AF26:AG40</f>
-        <v>2.0209262430443409E-3</v>
-      </c>
-      <c r="AA26" s="11">
-        <v>2.0209262430443409E-3</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA26" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>8.4932061383824475E-15</v>
+        <v>1.1768364061026659E-14</v>
       </c>
       <c r="AC26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>8.4932061383824475E-15</v>
+        <v>1.1768364061026659E-14</v>
       </c>
       <c r="AD26" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P26,BID)-Q26)</f>
-        <v>3.9654886490603225E-6</v>
+        <v>7.7090932709966697E-5</v>
       </c>
       <c r="AE26" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P26,ASK)-R26)</f>
-        <v>3.9654886490603225E-6</v>
-      </c>
-      <c r="AF26" s="11">
+        <v>7.7090932709966697E-5</v>
+      </c>
+      <c r="AF26" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S26,BID)-T26)</f>
-        <v>2.0209262430443409E-3</v>
-      </c>
-      <c r="AG26" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG26" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S26,ASK)-U26)</f>
-        <v>2.0209262430443409E-3</v>
-      </c>
-      <c r="AH26" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH26" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V26,BID)-W26)</f>
-        <v>2.0258362158135923E-3</v>
-      </c>
-      <c r="AI26" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI26" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V26,ASK)-X26)</f>
-        <v>2.0258362158135923E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ26" s="33"/>
     </row>
@@ -5185,11 +5189,11 @@
       <c r="J27" s="10" t="str">
         <v>SEK3M2Y=</v>
       </c>
-      <c r="K27" s="11">
-        <v>-0.19499999999983117</v>
-      </c>
-      <c r="L27" s="11">
-        <v>-0.19499999999983117</v>
+      <c r="K27" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L27" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M27" s="10" t="str">
         <f t="shared" si="17"/>
@@ -5197,11 +5201,11 @@
       </c>
       <c r="N27" s="11">
         <f>'ON Pricing'!H27*100</f>
-        <v>-0.24499999999999297</v>
+        <v>-0.26250000000013468</v>
       </c>
       <c r="O27" s="11">
         <f t="shared" si="12"/>
-        <v>-0.24499999999999297</v>
+        <v>-0.26250000000013468</v>
       </c>
       <c r="P27" s="89" t="str">
         <f t="shared" si="18"/>
@@ -5209,76 +5213,76 @@
       </c>
       <c r="Q27" s="90">
         <f>'1M Pricing'!H27*100</f>
-        <v>-0.28861622725506236</v>
+        <v>-0.30127974168776717</v>
       </c>
       <c r="R27" s="90">
         <f>Q27</f>
-        <v>-0.28861622725506236</v>
+        <v>-0.30127974168776717</v>
       </c>
       <c r="S27" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M2Y=</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="11" t="e">
         <f>'3M Pricing'!H27*100</f>
-        <v>-0.19499999999983117</v>
-      </c>
-      <c r="U27" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U27" s="11" t="e">
         <f t="shared" ref="U27:U40" si="22">T27</f>
-        <v>-0.19499999999983117</v>
+        <v>#NUM!</v>
       </c>
       <c r="V27" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M2Y=</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W27" s="11" t="e">
         <f>'6M Pricing'!H27*100</f>
-        <v>-9.2843747126161946E-2</v>
-      </c>
-      <c r="X27" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X27" s="11" t="e">
         <f t="shared" ref="X27:X40" si="23">W27</f>
-        <v>-9.2843747126161946E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y27" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z27" s="11">
-        <v>1.6883716646987068E-13</v>
-      </c>
-      <c r="AA27" s="11">
-        <v>1.6883716646987068E-13</v>
+      <c r="Z27" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA27" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>7.049916206369744E-15</v>
+        <v>1.3467005288703149E-13</v>
       </c>
       <c r="AC27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>7.049916206369744E-15</v>
+        <v>1.3467005288703149E-13</v>
       </c>
       <c r="AD27" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P27,BID)-Q27)</f>
-        <v>2.0797449376552812E-6</v>
+        <v>1.6753468776720126E-4</v>
       </c>
       <c r="AE27" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P27,ASK)-R27)</f>
-        <v>2.0797449376552812E-6</v>
-      </c>
-      <c r="AF27" s="11">
+        <v>1.6753468776720126E-4</v>
+      </c>
+      <c r="AF27" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S27,BID)-T27)</f>
-        <v>1.6883716646987068E-13</v>
-      </c>
-      <c r="AG27" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG27" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S27,ASK)-U27)</f>
-        <v>1.6883716646987068E-13</v>
-      </c>
-      <c r="AH27" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH27" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V27,BID)-W27)</f>
-        <v>2.2201261619392287E-6</v>
-      </c>
-      <c r="AI27" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI27" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V27,ASK)-X27)</f>
-        <v>2.2201261619392287E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ27" s="33" t="s">
         <v>56</v>
@@ -5311,11 +5315,11 @@
       <c r="J28" s="10" t="str">
         <v>SEK3M3Y=</v>
       </c>
-      <c r="K28" s="11">
-        <v>3.5000000021909707E-2</v>
-      </c>
-      <c r="L28" s="11">
-        <v>3.5000000021909707E-2</v>
+      <c r="K28" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L28" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M28" s="10" t="str">
         <f t="shared" si="17"/>
@@ -5323,11 +5327,11 @@
       </c>
       <c r="N28" s="11">
         <f>'ON Pricing'!H28*100</f>
-        <v>-5.5000000000009291E-2</v>
+        <v>-6.4999999999162172E-2</v>
       </c>
       <c r="O28" s="11">
         <f t="shared" si="12"/>
-        <v>-5.5000000000009291E-2</v>
+        <v>-6.4999999999162172E-2</v>
       </c>
       <c r="P28" s="89" t="str">
         <f t="shared" si="18"/>
@@ -5335,76 +5339,76 @@
       </c>
       <c r="Q28" s="90">
         <f>'1M Pricing'!H28*100</f>
-        <v>-6.4450348779786212E-2</v>
+        <v>-7.2158207073846861E-2</v>
       </c>
       <c r="R28" s="90">
         <f t="shared" ref="R28:R40" si="24">Q28</f>
-        <v>-6.4450348779786212E-2</v>
+        <v>-7.2158207073846861E-2</v>
       </c>
       <c r="S28" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M3Y=</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="11" t="e">
         <f>'3M Pricing'!H28*100</f>
-        <v>3.5000000021909707E-2</v>
-      </c>
-      <c r="U28" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U28" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>3.5000000021909707E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="V28" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M3Y=</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W28" s="11" t="e">
         <f>'6M Pricing'!H28*100</f>
-        <v>0.13668628649205083</v>
-      </c>
-      <c r="X28" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X28" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>0.13668628649205083</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y28" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z28" s="11">
-        <v>2.190971015725296E-11</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>2.190971015725296E-11</v>
+      <c r="Z28" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA28" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>9.2842400434278716E-15</v>
+        <v>8.3782980553337438E-13</v>
       </c>
       <c r="AC28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>9.2842400434278716E-15</v>
+        <v>8.3782980553337438E-13</v>
       </c>
       <c r="AD28" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,BID)-Q28)</f>
-        <v>3.1022021378113163E-7</v>
+        <v>2.0949407384686369E-4</v>
       </c>
       <c r="AE28" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,ASK)-R28)</f>
-        <v>3.1022021378113163E-7</v>
-      </c>
-      <c r="AF28" s="11">
+        <v>2.0949407384686369E-4</v>
+      </c>
+      <c r="AF28" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>2.190971015725296E-11</v>
-      </c>
-      <c r="AG28" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG28" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>2.190971015725296E-11</v>
-      </c>
-      <c r="AH28" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH28" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V28,BID)-W28)</f>
-        <v>2.3750794916899132E-7</v>
-      </c>
-      <c r="AI28" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI28" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V28,ASK)-X28)</f>
-        <v>2.3750794916899132E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ28" s="33" t="s">
         <v>56</v>
@@ -5437,11 +5441,11 @@
       <c r="J29" s="10" t="str">
         <v>SEK3M4Y=</v>
       </c>
-      <c r="K29" s="11">
-        <v>0.30499999999572613</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0.30499999999572613</v>
+      <c r="K29" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L29" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M29" s="10" t="str">
         <f t="shared" si="17"/>
@@ -5449,11 +5453,11 @@
       </c>
       <c r="N29" s="11">
         <f>'ON Pricing'!H29*100</f>
-        <v>0.17499999999998325</v>
+        <v>0.1825000000000562</v>
       </c>
       <c r="O29" s="11">
         <f t="shared" si="12"/>
-        <v>0.17499999999998325</v>
+        <v>0.1825000000000562</v>
       </c>
       <c r="P29" s="89" t="str">
         <f t="shared" si="18"/>
@@ -5461,76 +5465,76 @@
       </c>
       <c r="Q29" s="90">
         <f>'1M Pricing'!H29*100</f>
-        <v>0.20291943849915778</v>
+        <v>0.20770017991064474</v>
       </c>
       <c r="R29" s="90">
         <f t="shared" si="24"/>
-        <v>0.20291943849915778</v>
+        <v>0.20770017991064474</v>
       </c>
       <c r="S29" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M4Y=</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="11" t="e">
         <f>'3M Pricing'!H29*100</f>
-        <v>0.30499999999572613</v>
-      </c>
-      <c r="U29" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U29" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>0.30499999999572613</v>
+        <v>#NUM!</v>
       </c>
       <c r="V29" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M4Y=</v>
       </c>
-      <c r="W29" s="11">
+      <c r="W29" s="11" t="e">
         <f>'6M Pricing'!H29*100</f>
-        <v>0.40635283730327887</v>
-      </c>
-      <c r="X29" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X29" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>0.40635283730327887</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y29" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z29" s="11">
-        <v>4.2738590444457714E-12</v>
-      </c>
-      <c r="AA29" s="11">
-        <v>4.2738590444457714E-12</v>
+      <c r="Z29" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA29" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,BID)-N29)</f>
-        <v>1.6736612096224235E-14</v>
+        <v>5.620504062164855E-14</v>
       </c>
       <c r="AC29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,ASK)-O29)</f>
-        <v>1.6736612096224235E-14</v>
+        <v>5.620504062164855E-14</v>
       </c>
       <c r="AD29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P29,BID)-Q29)</f>
-        <v>3.1249915777298298E-7</v>
+        <v>2.1224808935524364E-4</v>
       </c>
       <c r="AE29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P29,ASK)-R29)</f>
-        <v>3.1249915777298298E-7</v>
-      </c>
-      <c r="AF29" s="11">
+        <v>2.1224808935524364E-4</v>
+      </c>
+      <c r="AF29" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,BID)-T29)</f>
-        <v>4.2738590444457714E-12</v>
-      </c>
-      <c r="AG29" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG29" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,ASK)-U29)</f>
-        <v>4.2738590444457714E-12</v>
-      </c>
-      <c r="AH29" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH29" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V29,BID)-W29)</f>
-        <v>2.2669672111730321E-7</v>
-      </c>
-      <c r="AI29" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI29" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V29,ASK)-X29)</f>
-        <v>2.2669672111730321E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ29" s="33" t="s">
         <v>56</v>
@@ -5563,11 +5567,11 @@
       <c r="J30" s="10" t="str">
         <v>SEK3M5Y=</v>
       </c>
-      <c r="K30" s="11">
-        <v>0.57750000000695223</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0.57750000000695223</v>
+      <c r="K30" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L30" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M30" s="10" t="str">
         <f t="shared" si="17"/>
@@ -5575,11 +5579,11 @@
       </c>
       <c r="N30" s="11">
         <f>'ON Pricing'!H30*100</f>
-        <v>0.44499999999998829</v>
+        <v>0.4675000000016829</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" si="12"/>
-        <v>0.44499999999998829</v>
+        <v>0.4675000000016829</v>
       </c>
       <c r="P30" s="89" t="str">
         <f t="shared" si="18"/>
@@ -5587,76 +5591,76 @@
       </c>
       <c r="Q30" s="90">
         <f>'1M Pricing'!H30*100</f>
-        <v>0.4749413953785529</v>
+        <v>0.4921800495109343</v>
       </c>
       <c r="R30" s="90">
         <f t="shared" si="24"/>
-        <v>0.4749413953785529</v>
+        <v>0.4921800495109343</v>
       </c>
       <c r="S30" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M5Y=</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="11" t="e">
         <f>'3M Pricing'!H30*100</f>
-        <v>0.57750000000695223</v>
-      </c>
-      <c r="U30" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U30" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>0.57750000000695223</v>
+        <v>#NUM!</v>
       </c>
       <c r="V30" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M5Y=</v>
       </c>
-      <c r="W30" s="11">
+      <c r="W30" s="11" t="e">
         <f>'6M Pricing'!H30*100</f>
-        <v>0.67849254791118541</v>
-      </c>
-      <c r="X30" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X30" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>0.67849254791118541</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y30" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z30" s="11">
-        <v>6.9522165802027303E-12</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>6.9522165802027303E-12</v>
+      <c r="Z30" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA30" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,BID)-N30)</f>
-        <v>1.1712852909795402E-14</v>
+        <v>1.6829315718780435E-12</v>
       </c>
       <c r="AC30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,ASK)-O30)</f>
-        <v>1.1712852909795402E-14</v>
+        <v>1.6829315718780435E-12</v>
       </c>
       <c r="AD30" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,BID)-Q30)</f>
-        <v>6.8378552930958847E-8</v>
+        <v>2.4854948906566365E-4</v>
       </c>
       <c r="AE30" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,ASK)-R30)</f>
-        <v>6.8378552930958847E-8</v>
-      </c>
-      <c r="AF30" s="11">
+        <v>2.4854948906566365E-4</v>
+      </c>
+      <c r="AF30" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>6.9522165802027303E-12</v>
-      </c>
-      <c r="AG30" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG30" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>6.9522165802027303E-12</v>
-      </c>
-      <c r="AH30" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH30" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V30,BID)-W30)</f>
-        <v>3.7088814686114802E-8</v>
-      </c>
-      <c r="AI30" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI30" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V30,ASK)-X30)</f>
-        <v>3.7088814686114802E-8</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ30" s="33" t="s">
         <v>56</v>
@@ -5689,11 +5693,11 @@
       <c r="J31" s="10" t="str">
         <v>SEK3M6Y=</v>
       </c>
-      <c r="K31" s="11">
-        <v>0.82750000001286494</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0.82750000001286494</v>
+      <c r="K31" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L31" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M31" s="10" t="str">
         <f t="shared" si="17"/>
@@ -5701,11 +5705,11 @@
       </c>
       <c r="N31" s="11">
         <f>'ON Pricing'!H31*100</f>
-        <v>0.6949999999999894</v>
+        <v>0.72000000000227393</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" si="12"/>
-        <v>0.6949999999999894</v>
+        <v>0.72000000000227393</v>
       </c>
       <c r="P31" s="89" t="str">
         <f t="shared" si="18"/>
@@ -5713,76 +5717,76 @@
       </c>
       <c r="Q31" s="90">
         <f>'1M Pricing'!H31*100</f>
-        <v>0.72484223554233662</v>
+        <v>0.74459352548767233</v>
       </c>
       <c r="R31" s="90">
         <f t="shared" si="24"/>
-        <v>0.72484223554233662</v>
+        <v>0.74459352548767233</v>
       </c>
       <c r="S31" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M6Y=</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="11" t="e">
         <f>'3M Pricing'!H31*100</f>
-        <v>0.82750000001286494</v>
-      </c>
-      <c r="U31" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U31" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>0.82750000001286494</v>
+        <v>#NUM!</v>
       </c>
       <c r="V31" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M6Y=</v>
       </c>
-      <c r="W31" s="11">
+      <c r="W31" s="11" t="e">
         <f>'6M Pricing'!H31*100</f>
-        <v>0.92806016116965351</v>
-      </c>
-      <c r="X31" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X31" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>0.92806016116965351</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y31" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z31" s="11">
-        <v>1.2864931342448926E-11</v>
-      </c>
-      <c r="AA31" s="11">
-        <v>1.2864931342448926E-11</v>
+      <c r="Z31" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA31" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
-        <v>1.0658141036401503E-14</v>
+        <v>2.2739587990372456E-12</v>
       </c>
       <c r="AC31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
-        <v>1.0658141036401503E-14</v>
+        <v>2.2739587990372456E-12</v>
       </c>
       <c r="AD31" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
-        <v>2.7945766334358524E-7</v>
+        <v>2.3552551232763896E-4</v>
       </c>
       <c r="AE31" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
-        <v>2.7945766334358524E-7</v>
-      </c>
-      <c r="AF31" s="11">
+        <v>2.3552551232763896E-4</v>
+      </c>
+      <c r="AF31" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>1.2864931342448926E-11</v>
-      </c>
-      <c r="AG31" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG31" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>1.2864931342448926E-11</v>
-      </c>
-      <c r="AH31" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH31" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V31,BID)-W31)</f>
-        <v>4.6216965354783923E-7</v>
-      </c>
-      <c r="AI31" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI31" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V31,ASK)-X31)</f>
-        <v>4.6216965354783923E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ31" s="33" t="s">
         <v>56</v>
@@ -5815,11 +5819,11 @@
       <c r="J32" s="10" t="str">
         <v>SEK3M7Y=</v>
       </c>
-      <c r="K32" s="11">
-        <v>1.0424999999999269</v>
-      </c>
-      <c r="L32" s="11">
-        <v>1.0424999999999269</v>
+      <c r="K32" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L32" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M32" s="10" t="str">
         <f t="shared" si="17"/>
@@ -5827,11 +5831,11 @@
       </c>
       <c r="N32" s="11">
         <f>'ON Pricing'!H32*100</f>
-        <v>0.9124999999999952</v>
+        <v>0.94500000000237305</v>
       </c>
       <c r="O32" s="11">
         <f t="shared" si="12"/>
-        <v>0.9124999999999952</v>
+        <v>0.94500000000237305</v>
       </c>
       <c r="P32" s="89" t="str">
         <f t="shared" si="18"/>
@@ -5839,76 +5843,76 @@
       </c>
       <c r="Q32" s="90">
         <f>'1M Pricing'!H32*100</f>
-        <v>0.93985624176492566</v>
+        <v>0.96720503079234499</v>
       </c>
       <c r="R32" s="90">
         <f t="shared" si="24"/>
-        <v>0.93985624176492566</v>
+        <v>0.96720503079234499</v>
       </c>
       <c r="S32" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M7Y=</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="11" t="e">
         <f>'3M Pricing'!H32*100</f>
-        <v>1.0424999999999269</v>
-      </c>
-      <c r="U32" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U32" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>1.0424999999999269</v>
+        <v>#NUM!</v>
       </c>
       <c r="V32" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M7Y=</v>
       </c>
-      <c r="W32" s="11">
+      <c r="W32" s="11" t="e">
         <f>'6M Pricing'!H32*100</f>
-        <v>1.1426186857356122</v>
-      </c>
-      <c r="X32" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X32" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>1.1426186857356122</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y32" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z32" s="11">
-        <v>7.30526750203353E-14</v>
-      </c>
-      <c r="AA32" s="11">
-        <v>7.30526750203353E-14</v>
+      <c r="Z32" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA32" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
-        <v>4.7739590058881731E-15</v>
+        <v>2.3731017151362721E-12</v>
       </c>
       <c r="AC32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
-        <v>4.7739590058881731E-15</v>
+        <v>2.3731017151362721E-12</v>
       </c>
       <c r="AD32" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
-        <v>2.9776492571631508E-7</v>
+        <v>2.3542720765512559E-4</v>
       </c>
       <c r="AE32" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
-        <v>2.9776492571631508E-7</v>
-      </c>
-      <c r="AF32" s="11">
+        <v>2.3542720765512559E-4</v>
+      </c>
+      <c r="AF32" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>7.30526750203353E-14</v>
-      </c>
-      <c r="AG32" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG32" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>7.30526750203353E-14</v>
-      </c>
-      <c r="AH32" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH32" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V32,BID)-W32)</f>
-        <v>3.2126438775925692E-7</v>
-      </c>
-      <c r="AI32" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI32" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V32,ASK)-X32)</f>
-        <v>3.2126438775925692E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ32" s="33" t="s">
         <v>56</v>
@@ -5941,11 +5945,11 @@
       <c r="J33" s="10" t="str">
         <v>SEK3M8Y=</v>
       </c>
-      <c r="K33" s="11">
-        <v>1.2275000000077698</v>
-      </c>
-      <c r="L33" s="11">
-        <v>1.2275000000077698</v>
+      <c r="K33" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L33" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M33" s="10" t="str">
         <f t="shared" si="17"/>
@@ -5953,11 +5957,11 @@
       </c>
       <c r="N33" s="11">
         <f>'ON Pricing'!H33*100</f>
-        <v>1.0999999999999879</v>
+        <v>1.1400000000022528</v>
       </c>
       <c r="O33" s="11">
         <f t="shared" si="12"/>
-        <v>1.0999999999999879</v>
+        <v>1.1400000000022528</v>
       </c>
       <c r="P33" s="89" t="str">
         <f t="shared" si="18"/>
@@ -5965,76 +5969,76 @@
       </c>
       <c r="Q33" s="90">
         <f>'1M Pricing'!H33*100</f>
-        <v>1.1249827598399753</v>
+        <v>1.1598397045991711</v>
       </c>
       <c r="R33" s="90">
         <f t="shared" si="24"/>
-        <v>1.1249827598399753</v>
+        <v>1.1598397045991711</v>
       </c>
       <c r="S33" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M8Y=</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="11" t="e">
         <f>'3M Pricing'!H33*100</f>
-        <v>1.2275000000077698</v>
-      </c>
-      <c r="U33" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U33" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>1.2275000000077698</v>
+        <v>#NUM!</v>
       </c>
       <c r="V33" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M8Y=</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W33" s="11" t="e">
         <f>'6M Pricing'!H33*100</f>
-        <v>1.3271691926756792</v>
-      </c>
-      <c r="X33" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X33" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>1.3271691926756792</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y33" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z33" s="11">
-        <v>7.7697848155366955E-12</v>
-      </c>
-      <c r="AA33" s="11">
-        <v>7.7697848155366955E-12</v>
+      <c r="Z33" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA33" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
-        <v>1.2212453270876722E-14</v>
+        <v>2.2528645615693677E-12</v>
       </c>
       <c r="AC33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
-        <v>1.2212453270876722E-14</v>
+        <v>2.2528645615693677E-12</v>
       </c>
       <c r="AD33" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
-        <v>1.0583997522850552E-7</v>
+        <v>2.2473440082904084E-4</v>
       </c>
       <c r="AE33" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
-        <v>1.0583997522850552E-7</v>
-      </c>
-      <c r="AF33" s="11">
+        <v>2.2473440082904084E-4</v>
+      </c>
+      <c r="AF33" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>7.7697848155366955E-12</v>
-      </c>
-      <c r="AG33" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG33" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>7.7697848155366955E-12</v>
-      </c>
-      <c r="AH33" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH33" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V33,BID)-W33)</f>
-        <v>1.6732432084332061E-7</v>
-      </c>
-      <c r="AI33" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI33" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V33,ASK)-X33)</f>
-        <v>1.6732432084332061E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ33" s="33" t="s">
         <v>56</v>
@@ -6067,11 +6071,11 @@
       <c r="J34" s="10" t="str">
         <v>SEK3M9Y=</v>
       </c>
-      <c r="K34" s="11">
-        <v>1.3899999999934665</v>
-      </c>
-      <c r="L34" s="11">
-        <v>1.3899999999934665</v>
+      <c r="K34" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L34" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M34" s="10" t="str">
         <f t="shared" si="17"/>
@@ -6079,11 +6083,11 @@
       </c>
       <c r="N34" s="11">
         <f>'ON Pricing'!H34*100</f>
-        <v>1.2650000000006112</v>
+        <v>1.3025000000020162</v>
       </c>
       <c r="O34" s="11">
         <f t="shared" si="12"/>
-        <v>1.2650000000006112</v>
+        <v>1.3025000000020162</v>
       </c>
       <c r="P34" s="89" t="str">
         <f t="shared" si="18"/>
@@ -6091,76 +6095,76 @@
       </c>
       <c r="Q34" s="90">
         <f>'1M Pricing'!H34*100</f>
-        <v>1.2875893329528578</v>
+        <v>1.3199591786847735</v>
       </c>
       <c r="R34" s="90">
         <f t="shared" si="24"/>
-        <v>1.2875893329528578</v>
+        <v>1.3199591786847735</v>
       </c>
       <c r="S34" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M9Y=</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="11" t="e">
         <f>'3M Pricing'!H34*100</f>
-        <v>1.3899999999934665</v>
-      </c>
-      <c r="U34" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U34" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>1.3899999999934665</v>
+        <v>#NUM!</v>
       </c>
       <c r="V34" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M9Y=</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W34" s="11" t="e">
         <f>'6M Pricing'!H34*100</f>
-        <v>1.4893425326868708</v>
-      </c>
-      <c r="X34" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X34" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>1.4893425326868708</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y34" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z34" s="11">
-        <v>6.5336624999190462E-12</v>
-      </c>
-      <c r="AA34" s="11">
-        <v>6.5336624999190462E-12</v>
+      <c r="Z34" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA34" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M34,BID)-N34)</f>
-        <v>6.1106675275368616E-13</v>
+        <v>2.0161650127192843E-12</v>
       </c>
       <c r="AC34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M34,ASK)-O34)</f>
-        <v>6.1106675275368616E-13</v>
+        <v>2.0161650127192843E-12</v>
       </c>
       <c r="AD34" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P34,BID)-Q34)</f>
-        <v>7.8952857807124133E-8</v>
+        <v>2.1398431522645645E-4</v>
       </c>
       <c r="AE34" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P34,ASK)-R34)</f>
-        <v>7.8952857807124133E-8</v>
-      </c>
-      <c r="AF34" s="11">
+        <v>2.1398431522645645E-4</v>
+      </c>
+      <c r="AF34" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
-        <v>6.5336624999190462E-12</v>
-      </c>
-      <c r="AG34" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG34" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
-        <v>6.5336624999190462E-12</v>
-      </c>
-      <c r="AH34" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH34" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V34,BID)-W34)</f>
-        <v>5.8313129214226933E-8</v>
-      </c>
-      <c r="AI34" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI34" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V34,ASK)-X34)</f>
-        <v>5.8313129214226933E-8</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ34" s="33" t="s">
         <v>56</v>
@@ -6193,11 +6197,11 @@
       <c r="J35" s="10" t="str">
         <v>SEK3M10Y=</v>
       </c>
-      <c r="K35" s="11">
-        <v>1.5299999999958755</v>
-      </c>
-      <c r="L35" s="11">
-        <v>1.5299999999958755</v>
+      <c r="K35" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L35" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M35" s="10" t="str">
         <f t="shared" si="17"/>
@@ -6205,11 +6209,11 @@
       </c>
       <c r="N35" s="11">
         <f>'ON Pricing'!H35*100</f>
-        <v>1.4050000000005314</v>
+        <v>1.437500000001726</v>
       </c>
       <c r="O35" s="11">
         <f t="shared" si="12"/>
-        <v>1.4050000000005314</v>
+        <v>1.437500000001726</v>
       </c>
       <c r="P35" s="89" t="str">
         <f t="shared" si="18"/>
@@ -6217,76 +6221,76 @@
       </c>
       <c r="Q35" s="90">
         <f>'1M Pricing'!H35*100</f>
-        <v>1.4278404123430855</v>
+        <v>1.4526185485285084</v>
       </c>
       <c r="R35" s="90">
         <f t="shared" si="24"/>
-        <v>1.4278404123430855</v>
+        <v>1.4526185485285084</v>
       </c>
       <c r="S35" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M10Y=</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="11" t="e">
         <f>'3M Pricing'!H35*100</f>
-        <v>1.5299999999958755</v>
-      </c>
-      <c r="U35" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U35" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>1.5299999999958755</v>
+        <v>#NUM!</v>
       </c>
       <c r="V35" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M10Y=</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W35" s="11" t="e">
         <f>'6M Pricing'!H35*100</f>
-        <v>1.6284664497878441</v>
-      </c>
-      <c r="X35" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X35" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>1.6284664497878441</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y35" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z35" s="11">
-        <v>4.1244785364824565E-12</v>
-      </c>
-      <c r="AA35" s="11">
-        <v>4.1244785364824565E-12</v>
+      <c r="Z35" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA35" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
-        <v>5.3135273958559992E-13</v>
+        <v>1.7259527140822684E-12</v>
       </c>
       <c r="AC35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
-        <v>5.3135273958559992E-13</v>
+        <v>1.7259527140822684E-12</v>
       </c>
       <c r="AD35" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
-        <v>7.0343085356583401E-8</v>
+        <v>2.0616947149165732E-4</v>
       </c>
       <c r="AE35" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
-        <v>7.0343085356583401E-8</v>
-      </c>
-      <c r="AF35" s="11">
+        <v>2.0616947149165732E-4</v>
+      </c>
+      <c r="AF35" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>4.1244785364824565E-12</v>
-      </c>
-      <c r="AG35" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG35" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>4.1244785364824565E-12</v>
-      </c>
-      <c r="AH35" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH35" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V35,BID)-W35)</f>
-        <v>5.6212156041013372E-8</v>
-      </c>
-      <c r="AI35" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI35" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V35,ASK)-X35)</f>
-        <v>5.6212156041013372E-8</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ35" s="33" t="s">
         <v>56</v>
@@ -6319,11 +6323,11 @@
       <c r="J36" s="10" t="str">
         <v>SEK3M12Y=</v>
       </c>
-      <c r="K36" s="11">
-        <v>1.7574999999847658</v>
-      </c>
-      <c r="L36" s="11">
-        <v>1.7574999999847658</v>
+      <c r="K36" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L36" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M36" s="10" t="str">
         <f t="shared" si="17"/>
@@ -6331,11 +6335,11 @@
       </c>
       <c r="N36" s="11">
         <f>'ON Pricing'!H36*100</f>
-        <v>1.6350000000017035</v>
+        <v>1.6549999999973655</v>
       </c>
       <c r="O36" s="11">
         <f t="shared" si="12"/>
-        <v>1.6350000000017035</v>
+        <v>1.6549999999973655</v>
       </c>
       <c r="P36" s="89" t="str">
         <f t="shared" si="18"/>
@@ -6343,76 +6347,76 @@
       </c>
       <c r="Q36" s="90">
         <f>'1M Pricing'!H36*100</f>
-        <v>1.6557591255079409</v>
+        <v>1.6679589384609939</v>
       </c>
       <c r="R36" s="90">
         <f t="shared" si="24"/>
-        <v>1.6557591255079409</v>
+        <v>1.6679589384609939</v>
       </c>
       <c r="S36" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M12Y=</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="11" t="e">
         <f>'3M Pricing'!H36*100</f>
-        <v>1.7574999999847658</v>
-      </c>
-      <c r="U36" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U36" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>1.7574999999847658</v>
+        <v>#NUM!</v>
       </c>
       <c r="V36" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M12Y=</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W36" s="11" t="e">
         <f>'6M Pricing'!H36*100</f>
-        <v>1.853075744888701</v>
-      </c>
-      <c r="X36" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X36" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>1.853075744888701</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y36" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z36" s="11">
-        <v>1.5234258299301473E-11</v>
-      </c>
-      <c r="AA36" s="11">
-        <v>1.5234258299301473E-11</v>
+      <c r="Z36" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA36" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M36,BID)-N36)</f>
-        <v>1.7035262089848402E-12</v>
+        <v>2.6345592374354965E-12</v>
       </c>
       <c r="AC36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M36,ASK)-O36)</f>
-        <v>1.7035262089848402E-12</v>
+        <v>2.6345592374354965E-12</v>
       </c>
       <c r="AD36" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P36,BID)-Q36)</f>
-        <v>1.3507940987977918E-8</v>
+        <v>1.8860153900623899E-4</v>
       </c>
       <c r="AE36" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P36,ASK)-R36)</f>
-        <v>1.3507940987977918E-8</v>
-      </c>
-      <c r="AF36" s="11">
+        <v>1.8860153900623899E-4</v>
+      </c>
+      <c r="AF36" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
-        <v>1.5234258299301473E-11</v>
-      </c>
-      <c r="AG36" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG36" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
-        <v>1.5234258299301473E-11</v>
-      </c>
-      <c r="AH36" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH36" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V36,BID)-W36)</f>
-        <v>8.8888700844336199E-8</v>
-      </c>
-      <c r="AI36" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI36" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V36,ASK)-X36)</f>
-        <v>8.8888700844336199E-8</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ36" s="33" t="s">
         <v>56</v>
@@ -6445,11 +6449,11 @@
       <c r="J37" s="10" t="str">
         <v>SEK3M15Y=</v>
       </c>
-      <c r="K37" s="11">
-        <v>2.0150000000006956</v>
-      </c>
-      <c r="L37" s="11">
-        <v>2.0150000000006956</v>
+      <c r="K37" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L37" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M37" s="10" t="str">
         <f t="shared" si="17"/>
@@ -6457,11 +6461,11 @@
       </c>
       <c r="N37" s="11">
         <f>'ON Pricing'!H37*100</f>
-        <v>1.9000000000016823</v>
+        <v>1.899999999997251</v>
       </c>
       <c r="O37" s="11">
         <f t="shared" si="12"/>
-        <v>1.9000000000016823</v>
+        <v>1.899999999997251</v>
       </c>
       <c r="P37" s="89" t="str">
         <f t="shared" si="18"/>
@@ -6469,76 +6473,76 @@
       </c>
       <c r="Q37" s="90">
         <f>'1M Pricing'!H37*100</f>
-        <v>1.9155915477307968</v>
+        <v>1.9103181395407665</v>
       </c>
       <c r="R37" s="90">
         <f t="shared" si="24"/>
-        <v>1.9155915477307968</v>
+        <v>1.9103181395407665</v>
       </c>
       <c r="S37" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M15Y=</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="11" t="e">
         <f>'3M Pricing'!H37*100</f>
-        <v>2.0150000000006956</v>
-      </c>
-      <c r="U37" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U37" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>2.0150000000006956</v>
+        <v>#NUM!</v>
       </c>
       <c r="V37" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M15Y=</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W37" s="11" t="e">
         <f>'6M Pricing'!H37*100</f>
-        <v>2.1034147656804683</v>
-      </c>
-      <c r="X37" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X37" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>2.1034147656804683</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y37" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z37" s="11">
-        <v>6.9544370262519806E-13</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>6.9544370262519806E-13</v>
+      <c r="Z37" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA37" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M37,BID)-N37)</f>
-        <v>1.6824319715169622E-12</v>
+        <v>2.7489122089718876E-12</v>
       </c>
       <c r="AC37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M37,ASK)-O37)</f>
-        <v>1.6824319715169622E-12</v>
+        <v>2.7489122089718876E-12</v>
       </c>
       <c r="AD37" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P37,BID)-Q37)</f>
-        <v>6.7730796748932676E-8</v>
+        <v>1.7089045923346369E-4</v>
       </c>
       <c r="AE37" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P37,ASK)-R37)</f>
-        <v>6.7730796748932676E-8</v>
-      </c>
-      <c r="AF37" s="11">
+        <v>1.7089045923346369E-4</v>
+      </c>
+      <c r="AF37" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
-        <v>6.9544370262519806E-13</v>
-      </c>
-      <c r="AG37" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG37" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
-        <v>6.9544370262519806E-13</v>
-      </c>
-      <c r="AH37" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH37" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V37,BID)-W37)</f>
-        <v>4.5319531682963543E-8</v>
-      </c>
-      <c r="AI37" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI37" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V37,ASK)-X37)</f>
-        <v>4.5319531682963543E-8</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ37" s="33" t="s">
         <v>56</v>
@@ -6571,11 +6575,11 @@
       <c r="J38" s="10" t="str">
         <v>SEK3M20Y=</v>
       </c>
-      <c r="K38" s="11">
-        <v>2.2899999999994227</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2.2899999999994227</v>
+      <c r="K38" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L38" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M38" s="10" t="str">
         <f t="shared" si="17"/>
@@ -6583,11 +6587,11 @@
       </c>
       <c r="N38" s="11">
         <f>'ON Pricing'!H38*100</f>
-        <v>2.1874999999980353</v>
+        <v>2.1875000000032405</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="12"/>
-        <v>2.1874999999980353</v>
+        <v>2.1875000000032405</v>
       </c>
       <c r="P38" s="89" t="str">
         <f t="shared" si="18"/>
@@ -6595,76 +6599,76 @@
       </c>
       <c r="Q38" s="90">
         <f>'1M Pricing'!H38*100</f>
-        <v>2.1959009502026676</v>
+        <v>2.1906457072143053</v>
       </c>
       <c r="R38" s="90">
         <f t="shared" si="24"/>
-        <v>2.1959009502026676</v>
+        <v>2.1906457072143053</v>
       </c>
       <c r="S38" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M20Y=</v>
       </c>
-      <c r="T38" s="11">
+      <c r="T38" s="11" t="e">
         <f>'3M Pricing'!H38*100</f>
-        <v>2.2899999999994227</v>
-      </c>
-      <c r="U38" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U38" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>2.2899999999994227</v>
+        <v>#NUM!</v>
       </c>
       <c r="V38" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M20Y=</v>
       </c>
-      <c r="W38" s="11">
+      <c r="W38" s="11" t="e">
         <f>'6M Pricing'!H38*100</f>
-        <v>2.368374260118288</v>
-      </c>
-      <c r="X38" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X38" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>2.368374260118288</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y38" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z38" s="11">
-        <v>5.773159728050814E-13</v>
-      </c>
-      <c r="AA38" s="11">
-        <v>5.773159728050814E-13</v>
+      <c r="Z38" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA38" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
-        <v>1.964650664376677E-12</v>
+        <v>3.2405189642759069E-12</v>
       </c>
       <c r="AC38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
-        <v>1.964650664376677E-12</v>
+        <v>3.2405189642759069E-12</v>
       </c>
       <c r="AD38" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
-        <v>2.2202667704362966E-8</v>
+        <v>1.5237578569449184E-4</v>
       </c>
       <c r="AE38" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
-        <v>2.2202667704362966E-8</v>
-      </c>
-      <c r="AF38" s="11">
+        <v>1.5237578569449184E-4</v>
+      </c>
+      <c r="AF38" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>5.773159728050814E-13</v>
-      </c>
-      <c r="AG38" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG38" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>5.773159728050814E-13</v>
-      </c>
-      <c r="AH38" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH38" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V38,BID)-W38)</f>
-        <v>2.0881711915166079E-8</v>
-      </c>
-      <c r="AI38" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI38" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V38,ASK)-X38)</f>
-        <v>2.0881711915166079E-8</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ38" s="33" t="s">
         <v>56</v>
@@ -6697,11 +6701,11 @@
       <c r="J39" s="10" t="str">
         <v>SEK3M25Y=</v>
       </c>
-      <c r="K39" s="11">
-        <v>2.4324999999998735</v>
-      </c>
-      <c r="L39" s="11">
-        <v>2.4324999999998735</v>
+      <c r="K39" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L39" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M39" s="10" t="str">
         <f t="shared" si="17"/>
@@ -6709,11 +6713,11 @@
       </c>
       <c r="N39" s="11">
         <f>'ON Pricing'!H39*100</f>
-        <v>2.337499999999741</v>
+        <v>2.337500000000424</v>
       </c>
       <c r="O39" s="11">
         <f t="shared" si="12"/>
-        <v>2.337499999999741</v>
+        <v>2.337500000000424</v>
       </c>
       <c r="P39" s="89" t="str">
         <f t="shared" si="18"/>
@@ -6721,76 +6725,76 @@
       </c>
       <c r="Q39" s="90">
         <f>'1M Pricing'!H39*100</f>
-        <v>2.3427451119792408</v>
+        <v>2.3350116615357948</v>
       </c>
       <c r="R39" s="90">
         <f t="shared" si="24"/>
-        <v>2.3427451119792408</v>
+        <v>2.3350116615357948</v>
       </c>
       <c r="S39" s="10" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M25Y=</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="11" t="e">
         <f>'3M Pricing'!H39*100</f>
-        <v>2.4324999999998735</v>
-      </c>
-      <c r="U39" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="U39" s="11" t="e">
         <f t="shared" si="22"/>
-        <v>2.4324999999998735</v>
+        <v>#NUM!</v>
       </c>
       <c r="V39" s="10" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M25Y=</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W39" s="11" t="e">
         <f>'6M Pricing'!H39*100</f>
-        <v>2.5037538421928636</v>
-      </c>
-      <c r="X39" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="X39" s="11" t="e">
         <f t="shared" si="23"/>
-        <v>2.5037538421928636</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y39" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z39" s="11">
-        <v>1.2656542480726785E-13</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>1.2656542480726785E-13</v>
+      <c r="Z39" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA39" s="11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB39" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
-        <v>2.5890400934258651E-13</v>
+        <v>4.241051954068098E-13</v>
       </c>
       <c r="AC39" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
-        <v>2.5890400934258651E-13</v>
+        <v>4.241051954068098E-13</v>
       </c>
       <c r="AD39" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
-        <v>1.1979240710502381E-8</v>
+        <v>1.3062046420531104E-4</v>
       </c>
       <c r="AE39" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
-        <v>1.1979240710502381E-8</v>
-      </c>
-      <c r="AF39" s="11">
+        <v>1.3062046420531104E-4</v>
+      </c>
+      <c r="AF39" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>1.2656542480726785E-13</v>
-      </c>
-      <c r="AG39" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG39" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>1.2656542480726785E-13</v>
-      </c>
-      <c r="AH39" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH39" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V39,BID)-W39)</f>
-        <v>1.5807136488632523E-8</v>
-      </c>
-      <c r="AI39" s="11">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI39" s="11" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V39,ASK)-X39)</f>
-        <v>1.5807136488632523E-8</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ39" s="33" t="s">
         <v>56</v>
@@ -6823,11 +6827,11 @@
       <c r="J40" s="12" t="str">
         <v>SEK3M30Y=</v>
       </c>
-      <c r="K40" s="13">
-        <v>2.4624999999999968</v>
-      </c>
-      <c r="L40" s="13">
-        <v>2.4624999999999968</v>
+      <c r="K40" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L40" s="13" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M40" s="12" t="str">
         <f t="shared" si="17"/>
@@ -6835,11 +6839,11 @@
       </c>
       <c r="N40" s="13">
         <f>'ON Pricing'!H40*100</f>
-        <v>2.3724999999983236</v>
+        <v>2.3725000000027547</v>
       </c>
       <c r="O40" s="13">
         <f t="shared" si="12"/>
-        <v>2.3724999999983236</v>
+        <v>2.3725000000027547</v>
       </c>
       <c r="P40" s="102" t="str">
         <f t="shared" si="18"/>
@@ -6847,76 +6851,76 @@
       </c>
       <c r="Q40" s="103">
         <f>'1M Pricing'!H40*100</f>
-        <v>2.3750946031989058</v>
+        <v>2.3673762184080669</v>
       </c>
       <c r="R40" s="103">
         <f t="shared" si="24"/>
-        <v>2.3750946031989058</v>
+        <v>2.3673762184080669</v>
       </c>
       <c r="S40" s="12" t="str">
         <f t="shared" si="20"/>
         <v>SEK3M30Y=</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="13" t="e">
         <f>'3M Pricing'!H40*100</f>
-        <v>2.4624999999999968</v>
-      </c>
-      <c r="U40" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="U40" s="13" t="e">
         <f t="shared" si="22"/>
-        <v>2.4624999999999968</v>
+        <v>#NUM!</v>
       </c>
       <c r="V40" s="12" t="str">
         <f t="shared" si="21"/>
         <v>SEK6M30Y=</v>
       </c>
-      <c r="W40" s="13">
+      <c r="W40" s="13" t="e">
         <f>'6M Pricing'!H40*100</f>
-        <v>2.5284358233399331</v>
-      </c>
-      <c r="X40" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="X40" s="13" t="e">
         <f t="shared" si="23"/>
-        <v>2.5284358233399331</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y40" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z40" s="13">
-        <v>3.1086244689504383E-15</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>3.1086244689504383E-15</v>
+      <c r="Z40" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA40" s="13" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AB40" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,BID)-N40)</f>
-        <v>1.6764367671839864E-12</v>
+        <v>2.7546853686999384E-12</v>
       </c>
       <c r="AC40" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,ASK)-O40)</f>
-        <v>1.6764367671839864E-12</v>
+        <v>2.7546853686999384E-12</v>
       </c>
       <c r="AD40" s="104">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,BID)-Q40)</f>
-        <v>2.61989057115386E-8</v>
+        <v>1.1555059193302242E-4</v>
       </c>
       <c r="AE40" s="104">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,ASK)-R40)</f>
-        <v>2.61989057115386E-8</v>
-      </c>
-      <c r="AF40" s="13">
+        <v>1.1555059193302242E-4</v>
+      </c>
+      <c r="AF40" s="13" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,BID)-T40)</f>
-        <v>3.1086244689504383E-15</v>
-      </c>
-      <c r="AG40" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="AG40" s="13" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,ASK)-U40)</f>
-        <v>3.1086244689504383E-15</v>
-      </c>
-      <c r="AH40" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="AH40" s="13" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V40,BID)-W40)</f>
-        <v>3.5660066899367848E-8</v>
-      </c>
-      <c r="AI40" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI40" s="13" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$V40,ASK)-X40)</f>
-        <v>3.5660066899367848E-8</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ40" s="33" t="s">
         <v>56</v>
@@ -7129,19 +7133,19 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E7" si="1">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-3.731034014971575E-3</v>
+        <v>-3.7999426308398861E-3</v>
       </c>
       <c r="I6" s="44" t="str">
         <f>Contribution!M6</f>
@@ -7151,7 +7155,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="123" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B18,H8:H18,,Trigger)</f>
-        <v>obj_001f0#0003</v>
+        <v>obj_001d3#0041</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
@@ -7170,19 +7174,19 @@
       </c>
       <c r="E7" s="154">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F7" s="154">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G7" s="154">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="H7" s="155">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-3.7304948752561553E-3</v>
+        <v>-3.8011629383414439E-3</v>
       </c>
       <c r="I7" s="156" t="str">
         <f>Contribution!M7</f>
@@ -7202,7 +7206,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -7212,26 +7216,26 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" ref="E8:E18" si="2">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,E8,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F8,IF(C8="SN","1D",IF(C8="SW","1W",C8)),"f",FALSE)</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlOvernightIndexedSwapFairRate(L8,InterestRateTrigger)</f>
-        <v>-3.729997194272805E-3</v>
+        <v>-3.804303372496598E-3</v>
       </c>
       <c r="I8" s="44"/>
       <c r="J8" s="45"/>
       <c r="K8" s="51"/>
       <c r="L8" s="123" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C8="SN","1D",IF(C8="SW","1W",C8)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a4#0000</v>
+        <v>obj_0018d#0000</v>
       </c>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
@@ -7269,7 +7273,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -7279,11 +7283,11 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E9,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F9,IF(C9="SN","1D",IF(C9="SW","1W",C9)),"f",FALSE)</f>
@@ -7291,14 +7295,14 @@
       </c>
       <c r="H9" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L9,InterestRateTrigger)</f>
-        <v>-3.7275280204256012E-3</v>
+        <v>-3.8133660133570224E-3</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="51"/>
       <c r="L9" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C9="SN","1D",IF(C9="SW","1W",C9)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a9#0000</v>
+        <v>obj_00186#0000</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
@@ -7356,7 +7360,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -7366,11 +7370,11 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F10,IF(C10="SN","1D",IF(C10="SW","1W",C10)),"f",FALSE)</f>
@@ -7378,14 +7382,14 @@
       </c>
       <c r="H10" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L10,InterestRateTrigger)</f>
-        <v>-3.7265790641307986E-3</v>
+        <v>-3.832337846745304E-3</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="51"/>
       <c r="L10" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C10="SN","1D",IF(C10="SW","1W",C10)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001af#0000</v>
+        <v>obj_00185#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="33"/>
@@ -7453,26 +7457,26 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E11,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F11,IF(C11="SN","1D",IF(C11="SW","1W",C11)),"f",FALSE)</f>
-        <v>42376</v>
+        <v>42377</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L11,InterestRateTrigger)</f>
-        <v>-3.7212664804161669E-3</v>
+        <v>-3.8476270541349623E-3</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="51"/>
       <c r="L11" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C11="SN","1D",IF(C11="SW","1W",C11)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001ad#0000</v>
+        <v>obj_0018e#0000</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
@@ -7530,7 +7534,7 @@
       <c r="A12" s="62"/>
       <c r="B12" s="173">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="173" t="s">
         <v>19</v>
@@ -7540,11 +7544,11 @@
       </c>
       <c r="E12" s="175">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F12" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E12,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G12" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F12,IF(C12="SN","1D",IF(C12="SW","1W",C12)),"mf",TRUE)</f>
@@ -7552,7 +7556,7 @@
       </c>
       <c r="H12" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L12,InterestRateTrigger)</f>
-        <v>-3.7100000000035716E-3</v>
+        <v>-3.9000000000010532E-3</v>
       </c>
       <c r="I12" s="177" t="str">
         <f>Contribution!M12</f>
@@ -7564,7 +7568,7 @@
       <c r="K12" s="51"/>
       <c r="L12" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C12="SN","1D",IF(C12="SW","1W",C12)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001ae#0000</v>
+        <v>obj_0017c#0000</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
@@ -7632,19 +7636,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E13,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F13,IF(C13="SN","1D",IF(C13="SW","1W",C13)),"mf",TRUE)</f>
-        <v>42417</v>
+        <v>42418</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L13,InterestRateTrigger)</f>
-        <v>-3.7000000000364866E-3</v>
+        <v>-4.0300000000000977E-3</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!M13</f>
@@ -7656,7 +7660,7 @@
       <c r="K13" s="51"/>
       <c r="L13" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C13="SN","1D",IF(C13="SW","1W",C13)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a5#0000</v>
+        <v>obj_00181#0000</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
@@ -7724,19 +7728,19 @@
       </c>
       <c r="E14" s="175">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F14" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E14,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G14" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F14,IF(C14="SN","1D",IF(C14="SW","1W",C14)),"mf",TRUE)</f>
-        <v>42446</v>
+        <v>42447</v>
       </c>
       <c r="H14" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L14,InterestRateTrigger)</f>
-        <v>-3.7500000000726605E-3</v>
+        <v>-3.9499999999997445E-3</v>
       </c>
       <c r="I14" s="177" t="str">
         <f>Contribution!M14</f>
@@ -7748,7 +7752,7 @@
       <c r="K14" s="51"/>
       <c r="L14" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C14="SN","1D",IF(C14="SW","1W",C14)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00197#0000</v>
+        <v>obj_00182#0000</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
@@ -7806,7 +7810,7 @@
       <c r="A15" s="62"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>22</v>
@@ -7816,11 +7820,11 @@
       </c>
       <c r="E15" s="40">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F15" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E15,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G15" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F15,IF(C15="SN","1D",IF(C15="SW","1W",C15)),"mf",TRUE)</f>
@@ -7828,7 +7832,7 @@
       </c>
       <c r="H15" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L15,InterestRateTrigger)</f>
-        <v>-3.7586216338624818E-3</v>
+        <v>-3.8970079325563525E-3</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>Contribution!M15</f>
@@ -7840,7 +7844,7 @@
       <c r="K15" s="51"/>
       <c r="L15" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C15="SN","1D",IF(C15="SW","1W",C15)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00198#0000</v>
+        <v>obj_00189#0000</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
@@ -7908,19 +7912,19 @@
       </c>
       <c r="E16" s="40">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F16" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E16,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F16,IF(C16="SN","1D",IF(C16="SW","1W",C16)),"mf",TRUE)</f>
-        <v>42507</v>
+        <v>42508</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L16,InterestRateTrigger)</f>
-        <v>-3.7718626484859056E-3</v>
+        <v>-3.8868843350774985E-3</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>Contribution!M16</f>
@@ -7932,7 +7936,7 @@
       <c r="K16" s="51"/>
       <c r="L16" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C16="SN","1D",IF(C16="SW","1W",C16)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a3#0000</v>
+        <v>obj_0017f#0000</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -7990,7 +7994,7 @@
       <c r="A17" s="62"/>
       <c r="B17" s="173">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C17" s="173" t="s">
         <v>14</v>
@@ -8000,19 +8004,19 @@
       </c>
       <c r="E17" s="175">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F17" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E17,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G17" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F17,IF(C17="SN","1D",IF(C17="SW","1W",C17)),"mf",TRUE)</f>
-        <v>42538</v>
+        <v>42541</v>
       </c>
       <c r="H17" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L17,InterestRateTrigger)</f>
-        <v>-3.8300000000002581E-3</v>
+        <v>-3.8999999999994087E-3</v>
       </c>
       <c r="I17" s="177" t="str">
         <f>Contribution!M17</f>
@@ -8024,7 +8028,7 @@
       <c r="K17" s="51"/>
       <c r="L17" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C17="SN","1D",IF(C17="SW","1W",C17)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001ab#0000</v>
+        <v>obj_0018c#0000</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -8082,7 +8086,7 @@
       <c r="A18" s="62"/>
       <c r="B18" s="17">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>24</v>
@@ -8092,11 +8096,11 @@
       </c>
       <c r="E18" s="41">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F18" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,E18,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G18" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,F18,IF(C18="SN","1D",IF(C18="SW","1W",C18)),"mf",TRUE)</f>
@@ -8104,7 +8108,7 @@
       </c>
       <c r="H18" s="42">
         <f>_xll.qlOvernightIndexedSwapFairRate(L18,InterestRateTrigger)</f>
-        <v>-4.0500000000001993E-3</v>
+        <v>-3.9199999999995263E-3</v>
       </c>
       <c r="I18" s="32" t="str">
         <f>Contribution!M18</f>
@@ -8116,7 +8120,7 @@
       <c r="K18" s="51"/>
       <c r="L18" s="26" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C18="SN","1D",IF(C18="SW","1W",C18)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001aa#0000</v>
+        <v>obj_00191#0000</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
@@ -8635,11 +8639,11 @@
       </c>
       <c r="E26" s="37">
         <f t="shared" ref="E26:E40" si="3">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F26" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,E26,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G26" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F26,IF(C26="SN","1D",IF(C26="SW","1W",C26)),"mf",TRUE)</f>
@@ -8647,7 +8651,7 @@
       </c>
       <c r="H26" s="38">
         <f>_xll.qlOvernightIndexedSwapFairRate(L26,InterestRateTrigger)</f>
-        <v>-3.799999999999915E-3</v>
+        <v>-3.7500000000001178E-3</v>
       </c>
       <c r="I26" s="31" t="str">
         <f>Contribution!M26</f>
@@ -8659,7 +8663,7 @@
       <c r="K26" s="50"/>
       <c r="L26" s="23" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C26="SN","1D",IF(C26="SW","1W",C26)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a0#0000</v>
+        <v>obj_0018a#0000</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
@@ -8724,11 +8728,11 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E27,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F27,IF(C27="SN","1D",IF(C27="SW","1W",C27)),"mf",TRUE)</f>
@@ -8736,7 +8740,7 @@
       </c>
       <c r="H27" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L27,InterestRateTrigger)</f>
-        <v>-2.4499999999999297E-3</v>
+        <v>-2.6250000000013467E-3</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!M27</f>
@@ -8748,7 +8752,7 @@
       <c r="K27" s="50"/>
       <c r="L27" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C27="SN","1D",IF(C27="SW","1W",C27)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a6#0000</v>
+        <v>obj_0017b#0000</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
@@ -8813,19 +8817,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E28,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F28,IF(C28="SN","1D",IF(C28="SW","1W",C28)),"mf",TRUE)</f>
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L28,InterestRateTrigger)</f>
-        <v>-5.5000000000009295E-4</v>
+        <v>-6.4999999999162169E-4</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!M28</f>
@@ -8837,7 +8841,7 @@
       <c r="K28" s="50"/>
       <c r="L28" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C28="SN","1D",IF(C28="SW","1W",C28)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0019c#0000</v>
+        <v>obj_00180#0000</v>
       </c>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
@@ -8902,19 +8906,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E29,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F29,IF(C29="SN","1D",IF(C29="SW","1W",C29)),"mf",TRUE)</f>
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L29,InterestRateTrigger)</f>
-        <v>1.7499999999998326E-3</v>
+        <v>1.8250000000005621E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!M29</f>
@@ -8926,7 +8930,7 @@
       <c r="K29" s="50"/>
       <c r="L29" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C29="SN","1D",IF(C29="SW","1W",C29)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00196#0000</v>
+        <v>obj_00179#0000</v>
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
@@ -8991,19 +8995,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E30,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F30,IF(C30="SN","1D",IF(C30="SW","1W",C30)),"mf",TRUE)</f>
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L30,InterestRateTrigger)</f>
-        <v>4.4499999999998829E-3</v>
+        <v>4.6750000000168289E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!M30</f>
@@ -9015,7 +9019,7 @@
       <c r="K30" s="50"/>
       <c r="L30" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C30="SN","1D",IF(C30="SW","1W",C30)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0019a#0000</v>
+        <v>obj_0018f#0000</v>
       </c>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
@@ -9080,19 +9084,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E31,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F31,IF(C31="SN","1D",IF(C31="SW","1W",C31)),"mf",TRUE)</f>
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L31,InterestRateTrigger)</f>
-        <v>6.9499999999998938E-3</v>
+        <v>7.2000000000227394E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!M31</f>
@@ -9104,7 +9108,7 @@
       <c r="K31" s="50"/>
       <c r="L31" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C31="SN","1D",IF(C31="SW","1W",C31)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a7#0000</v>
+        <v>obj_00184#0000</v>
       </c>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
@@ -9169,11 +9173,11 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E32,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F32,IF(C32="SN","1D",IF(C32="SW","1W",C32)),"mf",TRUE)</f>
@@ -9181,7 +9185,7 @@
       </c>
       <c r="H32" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L32,InterestRateTrigger)</f>
-        <v>9.1249999999999526E-3</v>
+        <v>9.4500000000237311E-3</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!M32</f>
@@ -9193,7 +9197,7 @@
       <c r="K32" s="50"/>
       <c r="L32" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C32="SN","1D",IF(C32="SW","1W",C32)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a1#0000</v>
+        <v>obj_0018b#0000</v>
       </c>
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
@@ -9258,11 +9262,11 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E33,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F33,IF(C33="SN","1D",IF(C33="SW","1W",C33)),"mf",TRUE)</f>
@@ -9270,7 +9274,7 @@
       </c>
       <c r="H33" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L33,InterestRateTrigger)</f>
-        <v>1.099999999999988E-2</v>
+        <v>1.1400000000022528E-2</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!M33</f>
@@ -9282,7 +9286,7 @@
       <c r="K33" s="50"/>
       <c r="L33" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C33="SN","1D",IF(C33="SW","1W",C33)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a8#0000</v>
+        <v>obj_0017d#0000</v>
       </c>
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
@@ -9347,19 +9351,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E34,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F34,IF(C34="SN","1D",IF(C34="SW","1W",C34)),"mf",TRUE)</f>
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L34,InterestRateTrigger)</f>
-        <v>1.2650000000006113E-2</v>
+        <v>1.3025000000020161E-2</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!M34</f>
@@ -9371,7 +9375,7 @@
       <c r="K34" s="50"/>
       <c r="L34" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C34="SN","1D",IF(C34="SW","1W",C34)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0019b#0000</v>
+        <v>obj_00187#0000</v>
       </c>
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
@@ -9436,19 +9440,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E35,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F35,IF(C35="SN","1D",IF(C35="SW","1W",C35)),"mf",TRUE)</f>
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L35,InterestRateTrigger)</f>
-        <v>1.4050000000005313E-2</v>
+        <v>1.4375000000017259E-2</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!M35</f>
@@ -9460,7 +9464,7 @@
       <c r="K35" s="50"/>
       <c r="L35" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C35="SN","1D",IF(C35="SW","1W",C35)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0019d#0000</v>
+        <v>obj_00188#0000</v>
       </c>
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
@@ -9525,19 +9529,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E36,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F36,IF(C36="SN","1D",IF(C36="SW","1W",C36)),"mf",TRUE)</f>
-        <v>46738</v>
+        <v>46741</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L36,InterestRateTrigger)</f>
-        <v>1.6350000000017035E-2</v>
+        <v>1.6549999999973655E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!M36</f>
@@ -9549,7 +9553,7 @@
       <c r="K36" s="50"/>
       <c r="L36" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C36="SN","1D",IF(C36="SW","1W",C36)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00199#0000</v>
+        <v>obj_0017e#0000</v>
       </c>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
@@ -9614,19 +9618,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E37,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F37,IF(C37="SN","1D",IF(C37="SW","1W",C37)),"mf",TRUE)</f>
-        <v>47834</v>
+        <v>47835</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L37,InterestRateTrigger)</f>
-        <v>1.9000000000016823E-2</v>
+        <v>1.8999999999972511E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!M37</f>
@@ -9638,7 +9642,7 @@
       <c r="K37" s="50"/>
       <c r="L37" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C37="SN","1D",IF(C37="SW","1W",C37)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0019f#0000</v>
+        <v>obj_00183#0000</v>
       </c>
       <c r="M37" s="33"/>
       <c r="N37" s="33"/>
@@ -9703,19 +9707,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E38,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F38,IF(C38="SN","1D",IF(C38="SW","1W",C38)),"mf",TRUE)</f>
-        <v>49660</v>
+        <v>49661</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L38,InterestRateTrigger)</f>
-        <v>2.1874999999980355E-2</v>
+        <v>2.1875000000032407E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!M38</f>
@@ -9727,7 +9731,7 @@
       <c r="K38" s="50"/>
       <c r="L38" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C38="SN","1D",IF(C38="SW","1W",C38)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001ac#0000</v>
+        <v>obj_00192#0000</v>
       </c>
       <c r="M38" s="33"/>
       <c r="N38" s="33"/>
@@ -9792,19 +9796,19 @@
       </c>
       <c r="E39" s="40">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F39" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E39,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G39" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F39,IF(C39="SN","1D",IF(C39="SW","1W",C39)),"mf",TRUE)</f>
-        <v>51487</v>
+        <v>51488</v>
       </c>
       <c r="H39" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L39,InterestRateTrigger)</f>
-        <v>2.3374999999997412E-2</v>
+        <v>2.337500000000424E-2</v>
       </c>
       <c r="I39" s="30" t="str">
         <f>Contribution!M39</f>
@@ -9816,7 +9820,7 @@
       <c r="K39" s="50"/>
       <c r="L39" s="24" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C39="SN","1D",IF(C39="SW","1W",C39)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0019e#0000</v>
+        <v>obj_0017a#0000</v>
       </c>
       <c r="M39" s="33"/>
       <c r="N39" s="33"/>
@@ -9881,11 +9885,11 @@
       </c>
       <c r="E40" s="41">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F40" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,E40,"2D","f",FALSE)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G40" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,F40,IF(C40="SN","1D",IF(C40="SW","1W",C40)),"mf",TRUE)</f>
@@ -9893,7 +9897,7 @@
       </c>
       <c r="H40" s="42">
         <f>_xll.qlOvernightIndexedSwapFairRate(L40,InterestRateTrigger)</f>
-        <v>2.3724999999983235E-2</v>
+        <v>2.3725000000027547E-2</v>
       </c>
       <c r="I40" s="32" t="str">
         <f>Contribution!M40</f>
@@ -9905,7 +9909,7 @@
       <c r="K40" s="50"/>
       <c r="L40" s="26" t="str">
         <f>_xll.qlMakeOIS(,2,IF(C40="SN","1D",IF(C40="SW","1W",C40)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_001a2#0000</v>
+        <v>obj_00190#0000</v>
       </c>
       <c r="M40" s="33"/>
       <c r="N40" s="33"/>
@@ -10375,26 +10379,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E40" si="1">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-6.5034578222081052E-3</v>
+        <v>-5.3493344469392181E-3</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
       <c r="L6" s="59" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_001f3#0001</v>
+        <v>obj_001d5#0039</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -10417,19 +10421,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="H7" s="111">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-6.5026610407056644E-3</v>
+        <v>-5.3506676791703059E-3</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -10454,7 +10458,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -10464,19 +10468,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>-6.5018895607904525E-3</v>
+        <v>-5.3541815647761837E-3</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!P8</f>
@@ -10486,7 +10490,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c2#0000</v>
+        <v>obj_001a9#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -10505,7 +10509,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -10515,11 +10519,11 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
@@ -10527,7 +10531,7 @@
       </c>
       <c r="H9" s="39">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>-6.4899999997456645E-3</v>
+        <v>-5.3640000014811839E-3</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!P9</f>
@@ -10537,7 +10541,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001b1#0000</v>
+        <v>obj_0019b#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="62"/>
@@ -10550,7 +10554,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -10560,19 +10564,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42368</v>
+        <v>42373</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>-6.4860000000002485E-3</v>
+        <v>-5.3830000010503826E-3</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!P10</f>
@@ -10582,7 +10586,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001bb#0000</v>
+        <v>obj_001bf#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="62"/>
@@ -10605,19 +10609,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42376</v>
+        <v>42377</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>-6.4829999999987155E-3</v>
+        <v>-5.3980000004694162E-3</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!P11</f>
@@ -10627,7 +10631,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c7#0000</v>
+        <v>obj_001aa#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="62"/>
@@ -10640,7 +10644,7 @@
       <c r="A12" s="62"/>
       <c r="B12" s="142">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="142" t="s">
         <v>19</v>
@@ -10650,11 +10654,11 @@
       </c>
       <c r="E12" s="144">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F12" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E12,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G12" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F12,Trigger)</f>
@@ -10662,7 +10666,7 @@
       </c>
       <c r="H12" s="145">
         <f>_xll.qlIndexFixing(IborIndex,E12,TRUE,InterestRateTrigger)</f>
-        <v>-6.4719999999927891E-3</v>
+        <v>-5.4499999998377981E-3</v>
       </c>
       <c r="I12" s="146" t="str">
         <f>Contribution!P12</f>
@@ -10954,11 +10958,11 @@
       </c>
       <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F26" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G26" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
@@ -10966,7 +10970,7 @@
       </c>
       <c r="H26" s="38">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>-4.4608395151135094E-3</v>
+        <v>-4.3616815593270995E-3</v>
       </c>
       <c r="I26" s="31" t="str">
         <f>Contribution!P26</f>
@@ -10979,7 +10983,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001d5#0000</v>
+        <v>obj_001b2#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="59" t="s">
@@ -11005,11 +11009,11 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
@@ -11017,7 +11021,7 @@
       </c>
       <c r="H27" s="39">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>-2.8861622725506238E-3</v>
+        <v>-3.0127974168776719E-3</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!P27</f>
@@ -11030,7 +11034,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001c4#0000</v>
+        <v>obj_001ce#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -11050,19 +11054,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>-6.4450348779786215E-4</v>
+        <v>-7.2158207073846859E-4</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!P28</f>
@@ -11075,7 +11079,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001c5#0000</v>
+        <v>obj_001bc#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="62"/>
@@ -11095,19 +11099,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>2.0291943849915779E-3</v>
+        <v>2.0770017991064474E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!P29</f>
@@ -11120,7 +11124,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001b8#0000</v>
+        <v>obj_001a0#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="62"/>
@@ -11140,19 +11144,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>4.7494139537855289E-3</v>
+        <v>4.9218004951093429E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!P30</f>
@@ -11165,7 +11169,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001df#0000</v>
+        <v>obj_001b6#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="62"/>
@@ -11185,19 +11189,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>7.2484223554233661E-3</v>
+        <v>7.4459352548767229E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!P31</f>
@@ -11210,7 +11214,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001bf#0000</v>
+        <v>obj_0019c#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="62"/>
@@ -11230,11 +11234,11 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
@@ -11242,7 +11246,7 @@
       </c>
       <c r="H32" s="39">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>9.3985624176492564E-3</v>
+        <v>9.6720503079234504E-3</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!P32</f>
@@ -11255,7 +11259,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001e7#0000</v>
+        <v>obj_001b4#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="62"/>
@@ -11275,11 +11279,11 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
@@ -11287,7 +11291,7 @@
       </c>
       <c r="H33" s="39">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>1.1249827598399754E-2</v>
+        <v>1.159839704599171E-2</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!P33</f>
@@ -11300,7 +11304,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001d2#0000</v>
+        <v>obj_001a3#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="62"/>
@@ -11320,19 +11324,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>1.2875893329528579E-2</v>
+        <v>1.3199591786847735E-2</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!P34</f>
@@ -11345,7 +11349,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001c1#0000</v>
+        <v>obj_001a4#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="62"/>
@@ -11365,19 +11369,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.4278404123430856E-2</v>
+        <v>1.4526185485285083E-2</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!P35</f>
@@ -11390,7 +11394,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001cc#0000</v>
+        <v>obj_001a5#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="62"/>
@@ -11410,19 +11414,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>46738</v>
+        <v>46741</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.6557591255079409E-2</v>
+        <v>1.6679589384609939E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!P36</f>
@@ -11435,7 +11439,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001cf#0000</v>
+        <v>obj_001c1#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="62"/>
@@ -11455,19 +11459,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>47834</v>
+        <v>47835</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>1.9155915477307967E-2</v>
+        <v>1.9103181395407665E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!P37</f>
@@ -11480,7 +11484,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001d8#0000</v>
+        <v>obj_001d2#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="62"/>
@@ -11500,19 +11504,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>49660</v>
+        <v>49661</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>2.1959009502026675E-2</v>
+        <v>2.1906457072143053E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!P38</f>
@@ -11525,7 +11529,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001e4#0000</v>
+        <v>obj_0019a#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="62"/>
@@ -11545,19 +11549,19 @@
       </c>
       <c r="E39" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F39" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G39" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>51487</v>
+        <v>51488</v>
       </c>
       <c r="H39" s="39">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>2.3427451119792407E-2</v>
+        <v>2.3350116615357946E-2</v>
       </c>
       <c r="I39" s="30" t="str">
         <f>Contribution!P39</f>
@@ -11570,7 +11574,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001dd#0000</v>
+        <v>obj_001c8#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="62"/>
@@ -11591,11 +11595,11 @@
       </c>
       <c r="E40" s="41">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F40" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G40" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
@@ -11603,7 +11607,7 @@
       </c>
       <c r="H40" s="42">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRateTrigger)</f>
-        <v>2.3750946031989059E-2</v>
+        <v>2.3673762184080668E-2</v>
       </c>
       <c r="I40" s="32" t="str">
         <f>Contribution!P40</f>
@@ -11616,7 +11620,7 @@
       <c r="K40" s="33"/>
       <c r="L40" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001d1#0000</v>
+        <v>obj_001a1#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="62"/>
@@ -11841,26 +11845,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42354</v>
-      </c>
-      <c r="H6" s="43">
+        <v>42355</v>
+      </c>
+      <c r="H6" s="43" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-4.3175642239883091E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="59" t="str">
+      <c r="L6" s="59" t="e">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_001f2#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -11883,19 +11887,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42355</v>
-      </c>
-      <c r="H7" s="111">
+        <v>42356</v>
+      </c>
+      <c r="H7" s="111" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-4.3174464800014222E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -11920,7 +11924,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -11930,19 +11934,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42356</v>
-      </c>
-      <c r="H8" s="43">
+        <v>42359</v>
+      </c>
+      <c r="H8" s="43" t="e">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>-4.3173322945877501E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!S8</f>
@@ -11952,7 +11956,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001dc#0000</v>
+        <v>obj_001c3#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -11971,7 +11975,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -11981,19 +11985,19 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
         <v>42366</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="39" t="e">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>-4.3156032758704587E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!S9</f>
@@ -12003,7 +12007,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001e1#0000</v>
+        <v>obj_00197#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="62"/>
@@ -12016,7 +12020,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -12026,19 +12030,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42368</v>
-      </c>
-      <c r="H10" s="39">
+        <v>42373</v>
+      </c>
+      <c r="H10" s="39" t="e">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>-4.3149634943394893E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!S10</f>
@@ -12048,7 +12052,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001d6#0000</v>
+        <v>obj_001c2#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="62"/>
@@ -12071,19 +12075,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42376</v>
-      </c>
-      <c r="H11" s="39">
+        <v>42377</v>
+      </c>
+      <c r="H11" s="39" t="e">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>-4.3114246767908936E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!S11</f>
@@ -12093,7 +12097,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001cd#0000</v>
+        <v>obj_001ab#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="62"/>
@@ -12106,7 +12110,7 @@
       <c r="A12" s="62"/>
       <c r="B12" s="16">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>19</v>
@@ -12116,19 +12120,19 @@
       </c>
       <c r="E12" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F12" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G12" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
         <v>42387</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="39" t="e">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
-        <v>-4.3039999999994194E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>Contribution!S12</f>
@@ -12138,7 +12142,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C12="SN","1D",IF(C12="SW","1W",C12)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001b0#0000</v>
+        <v>obj_001a6#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="62"/>
@@ -12161,19 +12165,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42417</v>
-      </c>
-      <c r="H13" s="39">
+        <v>42418</v>
+      </c>
+      <c r="H13" s="39" t="e">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
-        <v>-4.3090000004891897E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!S13</f>
@@ -12183,7 +12187,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C13="SN","1D",IF(C13="SW","1W",C13)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001bd#0000</v>
+        <v>obj_001b7#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="62"/>
@@ -12206,19 +12210,19 @@
       </c>
       <c r="E14" s="144">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F14" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E14,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G14" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F14,Trigger)</f>
-        <v>42446</v>
-      </c>
-      <c r="H14" s="145">
+        <v>42447</v>
+      </c>
+      <c r="H14" s="145" t="e">
         <f>_xll.qlIndexFixing(IborIndex,E14,TRUE,InterestRateTrigger)</f>
-        <v>-4.34999999999973E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I14" s="146" t="str">
         <f>Contribution!S14</f>
@@ -12340,9 +12344,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F19,Trigger)</f>
         <v>42537</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="77" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRateTrigger))*100</f>
-        <v>100.370000000034</v>
+        <v>#NUM!</v>
       </c>
       <c r="I19" s="31" t="str">
         <f>Contribution!S19</f>
@@ -12385,9 +12389,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F20,Trigger)</f>
         <v>42628</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="78" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRateTrigger))*100</f>
-        <v>100.33999999981403</v>
+        <v>#NUM!</v>
       </c>
       <c r="I20" s="30" t="str">
         <f>Contribution!S20</f>
@@ -12430,9 +12434,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F21,Trigger)</f>
         <v>42725</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="78" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRateTrigger))*100</f>
-        <v>100.27999999999244</v>
+        <v>#NUM!</v>
       </c>
       <c r="I21" s="30" t="str">
         <f>Contribution!S21</f>
@@ -12475,9 +12479,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F22,Trigger)</f>
         <v>42815</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="78" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRateTrigger))*100</f>
-        <v>100.19500000000004</v>
+        <v>#NUM!</v>
       </c>
       <c r="I22" s="30" t="str">
         <f>Contribution!S22</f>
@@ -12520,9 +12524,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F23,Trigger)</f>
         <v>42901</v>
       </c>
-      <c r="H23" s="78">
+      <c r="H23" s="78" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRateTrigger))*100</f>
-        <v>100.09000000009011</v>
+        <v>#NUM!</v>
       </c>
       <c r="I23" s="30" t="str">
         <f>Contribution!S23</f>
@@ -12565,9 +12569,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F24,Trigger)</f>
         <v>42999</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="78" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRateTrigger))*100</f>
-        <v>99.96999999990858</v>
+        <v>#NUM!</v>
       </c>
       <c r="I24" s="30" t="str">
         <f>Contribution!S24</f>
@@ -12605,9 +12609,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F25,Trigger)</f>
         <v>43089</v>
       </c>
-      <c r="H25" s="79">
+      <c r="H25" s="79" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E25,TRUE,InterestRateTrigger))*100</f>
-        <v>99.851343816258563</v>
+        <v>#NUM!</v>
       </c>
       <c r="I25" s="32" t="str">
         <f>Contribution!S25</f>
@@ -12645,19 +12649,19 @@
       </c>
       <c r="E26" s="37">
         <f>EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F26" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G26" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
         <v>42723</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="38" t="e">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>-3.6140638024304435E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I26" s="31" t="str">
         <f>Contribution!S26</f>
@@ -12670,7 +12674,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001c6#0000</v>
+        <v>obj_00194#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="59" t="s">
@@ -12696,19 +12700,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" ref="E27:E28" si="5">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
         <v>43087</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="39" t="e">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>-1.9499999999983118E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!S27</f>
@@ -12721,7 +12725,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001d4#0000</v>
+        <v>obj_001ac#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -12741,19 +12745,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43451</v>
-      </c>
-      <c r="H28" s="39">
+        <v>43452</v>
+      </c>
+      <c r="H28" s="39" t="e">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>3.5000000021909704E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!S28</f>
@@ -12766,7 +12770,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001c0#0000</v>
+        <v>obj_001ca#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="62"/>
@@ -12786,19 +12790,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" ref="E29:E30" si="6">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43816</v>
-      </c>
-      <c r="H29" s="39">
+        <v>43817</v>
+      </c>
+      <c r="H29" s="39" t="e">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>3.0499999999572614E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!S29</f>
@@ -12811,7 +12815,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001c9#0000</v>
+        <v>obj_001c0#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="62"/>
@@ -12831,19 +12835,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44182</v>
-      </c>
-      <c r="H30" s="39">
+        <v>44183</v>
+      </c>
+      <c r="H30" s="39" t="e">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>5.7750000000695223E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!S30</f>
@@ -12856,7 +12860,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001cb#0000</v>
+        <v>obj_001ba#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="62"/>
@@ -12876,19 +12880,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" ref="E31:E40" si="7">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44547</v>
-      </c>
-      <c r="H31" s="39">
+        <v>44550</v>
+      </c>
+      <c r="H31" s="39" t="e">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>8.2750000001286499E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!S31</f>
@@ -12901,7 +12905,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001d3#0000</v>
+        <v>obj_00195#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="62"/>
@@ -12921,19 +12925,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
         <v>44914</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="39" t="e">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>1.042499999999927E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!S32</f>
@@ -12946,7 +12950,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001ce#0000</v>
+        <v>obj_001b9#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="62"/>
@@ -12966,19 +12970,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
         <v>45278</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="39" t="e">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>1.2275000000077698E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!S33</f>
@@ -12991,7 +12995,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001e6#0000</v>
+        <v>obj_001c9#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="62"/>
@@ -13011,19 +13015,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45643</v>
-      </c>
-      <c r="H34" s="39">
+        <v>45644</v>
+      </c>
+      <c r="H34" s="39" t="e">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>1.3899999999934664E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!S34</f>
@@ -13036,7 +13040,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001e2#0000</v>
+        <v>obj_001c4#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="62"/>
@@ -13056,19 +13060,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46008</v>
-      </c>
-      <c r="H35" s="39">
+        <v>46009</v>
+      </c>
+      <c r="H35" s="39" t="e">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.5299999999958756E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!S35</f>
@@ -13081,7 +13085,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001b6#0000</v>
+        <v>obj_001af#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="62"/>
@@ -13101,19 +13105,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>46738</v>
-      </c>
-      <c r="H36" s="39">
+        <v>46741</v>
+      </c>
+      <c r="H36" s="39" t="e">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.7574999999847657E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!S36</f>
@@ -13126,7 +13130,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001de#0000</v>
+        <v>obj_001d1#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="62"/>
@@ -13146,19 +13150,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>47834</v>
-      </c>
-      <c r="H37" s="39">
+        <v>47835</v>
+      </c>
+      <c r="H37" s="39" t="e">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>2.0150000000006957E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!S37</f>
@@ -13171,7 +13175,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001d9#0000</v>
+        <v>obj_00196#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="62"/>
@@ -13191,19 +13195,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>49660</v>
-      </c>
-      <c r="H38" s="39">
+        <v>49661</v>
+      </c>
+      <c r="H38" s="39" t="e">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>2.2899999999994227E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!S38</f>
@@ -13216,7 +13220,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001b7#0000</v>
+        <v>obj_001be#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="62"/>
@@ -13236,19 +13240,19 @@
       </c>
       <c r="E39" s="40">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F39" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G39" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>51487</v>
-      </c>
-      <c r="H39" s="39">
+        <v>51488</v>
+      </c>
+      <c r="H39" s="39" t="e">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>2.4324999999998737E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I39" s="30" t="str">
         <f>Contribution!S39</f>
@@ -13261,7 +13265,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001d7#0000</v>
+        <v>obj_001d0#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="62"/>
@@ -13282,19 +13286,19 @@
       </c>
       <c r="E40" s="41">
         <f t="shared" si="7"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F40" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G40" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
         <v>53314</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="42" t="e">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRateTrigger)</f>
-        <v>2.4624999999999966E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I40" s="32" t="str">
         <f>Contribution!S40</f>
@@ -13307,7 +13311,7 @@
       <c r="K40" s="33"/>
       <c r="L40" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001e5#0000</v>
+        <v>obj_001c5#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="62"/>
@@ -13533,26 +13537,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42354</v>
-      </c>
-      <c r="H6" s="43">
+        <v>42355</v>
+      </c>
+      <c r="H6" s="43" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-3.1669608913724228E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="59" t="str">
+      <c r="L6" s="59" t="e">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_001f4#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -13575,19 +13579,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42355</v>
-      </c>
-      <c r="H7" s="111">
+        <v>42356</v>
+      </c>
+      <c r="H7" s="111" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-3.1666075226093331E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -13612,7 +13616,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -13622,19 +13626,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42356</v>
-      </c>
-      <c r="H8" s="43">
+        <v>42359</v>
+      </c>
+      <c r="H8" s="43" t="e">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>-3.1662669481091754E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!V8</f>
@@ -13644,7 +13648,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001e9#0000</v>
+        <v>obj_00198#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -13663,7 +13667,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -13673,19 +13677,19 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
         <v>42366</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="39" t="e">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>-3.1607501497237841E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!V9</f>
@@ -13695,7 +13699,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001ca#0000</v>
+        <v>obj_001cf#0000</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="62"/>
@@ -13708,7 +13712,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -13718,19 +13722,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42368</v>
-      </c>
-      <c r="H10" s="39">
+        <v>42373</v>
+      </c>
+      <c r="H10" s="39" t="e">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>-3.1585714105512117E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!V10</f>
@@ -13740,7 +13744,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001eb#0000</v>
+        <v>obj_001b3#0000</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="62"/>
@@ -13763,19 +13767,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42376</v>
-      </c>
-      <c r="H11" s="39">
+        <v>42377</v>
+      </c>
+      <c r="H11" s="39" t="e">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>-3.1462724797500941E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!V11</f>
@@ -13785,7 +13789,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001d0#0000</v>
+        <v>obj_001c7#0000</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="62"/>
@@ -13798,7 +13802,7 @@
       <c r="A12" s="62"/>
       <c r="B12" s="16">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>19</v>
@@ -13808,19 +13812,19 @@
       </c>
       <c r="E12" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F12" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G12" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
         <v>42387</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="39" t="e">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
-        <v>-3.1199999999989569E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>Contribution!V12</f>
@@ -13830,7 +13834,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C12="SN","1D",IF(C12="SW","1W",C12)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001e0#0000</v>
+        <v>obj_001b8#0000</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="62"/>
@@ -13853,19 +13857,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42417</v>
-      </c>
-      <c r="H13" s="39">
+        <v>42418</v>
+      </c>
+      <c r="H13" s="39" t="e">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
-        <v>-3.0509999999995784E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!V13</f>
@@ -13875,7 +13879,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C13="SN","1D",IF(C13="SW","1W",C13)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001da#0000</v>
+        <v>obj_001ad#0000</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="47"/>
@@ -13898,19 +13902,19 @@
       </c>
       <c r="E14" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F14" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G14" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42446</v>
-      </c>
-      <c r="H14" s="39">
+        <v>42447</v>
+      </c>
+      <c r="H14" s="39" t="e">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRateTrigger)</f>
-        <v>-3.0429999999136074E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I14" s="30" t="str">
         <f>Contribution!V14</f>
@@ -13920,7 +13924,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C14="SN","1D",IF(C14="SW","1W",C14)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c3#0000</v>
+        <v>obj_001b1#0000</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="47"/>
@@ -13933,7 +13937,7 @@
       <c r="A15" s="62"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>22</v>
@@ -13943,19 +13947,19 @@
       </c>
       <c r="E15" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F15" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G15" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
         <v>42478</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="39" t="e">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRateTrigger)</f>
-        <v>-2.9879999999999742E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>Contribution!V15</f>
@@ -13965,7 +13969,7 @@
       <c r="K15" s="33"/>
       <c r="L15" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C15="SN","1D",IF(C15="SW","1W",C15)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001e8#0000</v>
+        <v>obj_001cc#0000</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="47"/>
@@ -13988,19 +13992,19 @@
       </c>
       <c r="E16" s="40">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F16" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42507</v>
-      </c>
-      <c r="H16" s="39">
+        <v>42508</v>
+      </c>
+      <c r="H16" s="39" t="e">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRateTrigger)</f>
-        <v>-2.9429999999999587E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>Contribution!V16</f>
@@ -14010,7 +14014,7 @@
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C16="SN","1D",IF(C16="SW","1W",C16)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001db#0000</v>
+        <v>obj_0019e#0000</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="47"/>
@@ -14023,7 +14027,7 @@
       <c r="A17" s="62"/>
       <c r="B17" s="142">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C17" s="142" t="s">
         <v>14</v>
@@ -14033,19 +14037,19 @@
       </c>
       <c r="E17" s="144">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F17" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E17,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G17" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F17,Trigger)</f>
-        <v>42538</v>
-      </c>
-      <c r="H17" s="145">
+        <v>42541</v>
+      </c>
+      <c r="H17" s="145" t="e">
         <f>_xll.qlIndexFixing(IborIndex,E17,TRUE,InterestRateTrigger)</f>
-        <v>-2.9399999999767594E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I17" s="146" t="str">
         <f>Contribution!V17</f>
@@ -14237,19 +14241,19 @@
       </c>
       <c r="E26" s="37">
         <f t="shared" ref="E26:E28" si="2">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F26" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G26" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
         <v>42723</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="38" t="e">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>-2.5836944421581362E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I26" s="31" t="str">
         <f>Contribution!V26</f>
@@ -14262,7 +14266,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001bc#0000</v>
+        <v>obj_001b5#0000</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="59" t="s">
@@ -14288,19 +14292,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
         <v>43087</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="39" t="e">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>-9.2843747126161952E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!V27</f>
@@ -14313,7 +14317,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001ea#0000</v>
+        <v>obj_001ae#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -14333,19 +14337,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43451</v>
-      </c>
-      <c r="H28" s="39">
+        <v>43452</v>
+      </c>
+      <c r="H28" s="39" t="e">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>1.3668628649205084E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!V28</f>
@@ -14358,7 +14362,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001c8#0000</v>
+        <v>obj_0019d#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="62"/>
@@ -14378,19 +14382,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" ref="E29:E30" si="4">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43816</v>
-      </c>
-      <c r="H29" s="39">
+        <v>43817</v>
+      </c>
+      <c r="H29" s="39" t="e">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>4.063528373032789E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!V29</f>
@@ -14403,7 +14407,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001ed#0000</v>
+        <v>obj_001bb#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="47"/>
@@ -14423,19 +14427,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44182</v>
-      </c>
-      <c r="H30" s="39">
+        <v>44183</v>
+      </c>
+      <c r="H30" s="39" t="e">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>6.7849254791118542E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!V30</f>
@@ -14448,7 +14452,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001be#0000</v>
+        <v>obj_001a8#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="47"/>
@@ -14468,19 +14472,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" ref="E31:E40" si="5">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44547</v>
-      </c>
-      <c r="H31" s="39">
+        <v>44550</v>
+      </c>
+      <c r="H31" s="39" t="e">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>9.2806016116965349E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!V31</f>
@@ -14493,7 +14497,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001b4#0000</v>
+        <v>obj_00193#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="47"/>
@@ -14513,19 +14517,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
         <v>44914</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="39" t="e">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>1.1426186857356121E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!V32</f>
@@ -14538,7 +14542,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001ee#0000</v>
+        <v>obj_00199#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="47"/>
@@ -14558,19 +14562,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
         <v>45278</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="39" t="e">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>1.3271691926756793E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!V33</f>
@@ -14583,7 +14587,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001b9#0000</v>
+        <v>obj_001cb#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="47"/>
@@ -14603,19 +14607,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45643</v>
-      </c>
-      <c r="H34" s="39">
+        <v>45644</v>
+      </c>
+      <c r="H34" s="39" t="e">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>1.4893425326868708E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!V34</f>
@@ -14628,7 +14632,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001ba#0000</v>
+        <v>obj_001b0#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="47"/>
@@ -14648,19 +14652,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46008</v>
-      </c>
-      <c r="H35" s="39">
+        <v>46009</v>
+      </c>
+      <c r="H35" s="39" t="e">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.6284664497878441E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!V35</f>
@@ -14673,7 +14677,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001ef#0000</v>
+        <v>obj_0019f#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="47"/>
@@ -14693,19 +14697,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>46738</v>
-      </c>
-      <c r="H36" s="39">
+        <v>46741</v>
+      </c>
+      <c r="H36" s="39" t="e">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.8530757448887009E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!V36</f>
@@ -14718,7 +14722,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001b3#0000</v>
+        <v>obj_001a2#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="47"/>
@@ -14738,19 +14742,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>47834</v>
-      </c>
-      <c r="H37" s="39">
+        <v>47835</v>
+      </c>
+      <c r="H37" s="39" t="e">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>2.1034147656804683E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!V37</f>
@@ -14763,7 +14767,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001e3#0000</v>
+        <v>obj_001bd#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="47"/>
@@ -14783,19 +14787,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>49660</v>
-      </c>
-      <c r="H38" s="39">
+        <v>49661</v>
+      </c>
+      <c r="H38" s="39" t="e">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>2.3683742601182882E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!V38</f>
@@ -14808,7 +14812,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001b2#0000</v>
+        <v>obj_001cd#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="47"/>
@@ -14828,19 +14832,19 @@
       </c>
       <c r="E39" s="40">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F39" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G39" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>51487</v>
-      </c>
-      <c r="H39" s="39">
+        <v>51488</v>
+      </c>
+      <c r="H39" s="39" t="e">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>2.5037538421928636E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I39" s="30" t="str">
         <f>Contribution!V39</f>
@@ -14853,7 +14857,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001b5#0000</v>
+        <v>obj_001a7#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="47"/>
@@ -14874,19 +14878,19 @@
       </c>
       <c r="E40" s="41">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F40" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G40" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
         <v>53314</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="42" t="e">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRateTrigger)</f>
-        <v>2.5284358233399331E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I40" s="32" t="str">
         <f>Contribution!V40</f>
@@ -14899,7 +14903,7 @@
       <c r="K40" s="33"/>
       <c r="L40" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_001ec#0000</v>
+        <v>obj_001c6#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="47"/>
